--- a/内部编号列表/[decomp]Perfect Floral Blessing.xlsx
+++ b/内部编号列表/[decomp]Perfect Floral Blessing.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\PvZHB-CheatTables\内部编号列表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Administrator\Documents\GitHub\PvZHB-CheatTables\内部编号列表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F988C0-952E-4FAF-A027-8E4EBBA7E29B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D183F45-E996-4BD1-ADD5-5299B816B92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="1260" windowWidth="21600" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Alpha v2.8.1" sheetId="2" r:id="rId1"/>
-    <sheet name="Alpha v2.6.1-2.7.0" sheetId="1" r:id="rId2"/>
+    <sheet name="Beta 1.0.4" sheetId="3" r:id="rId1"/>
+    <sheet name="Alpha v2.8.1" sheetId="2" r:id="rId2"/>
+    <sheet name="Alpha v2.6.1-2.7.0" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="607">
   <si>
     <r>
       <rPr>
@@ -4031,6 +4032,3398 @@
   </si>
   <si>
     <t>いざ、倒れ逝くその時まで</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月光菇</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>花生射手</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>爆炸坚果</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玉米加农炮</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼苗</t>
+  </si>
+  <si>
+    <t>幼苗</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火焰射手</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇旗僵尸</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>读报僵尸</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伴舞僵尸</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鸭子救生圈僵尸</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>潜水僵尸</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雪橇僵尸小队</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>海豚骑士僵尸</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玩偶匣僵尸</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雪人僵尸</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投石车僵尸</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>僵王博士</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暴走巨人僵尸</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>豌豆射手僵尸</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坚果墙僵尸</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火爆辣椒僵尸</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机枪射手僵尸</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>窝瓜僵尸</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高坚果僵尸</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>棱镜草僵尸</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火焰射手僵尸</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>竹子僵尸</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火焰菇僵尸</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6C</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6D</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6E</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6F</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浓雾草坪</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月夜</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大日照</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黑暗的暴风雨月夜</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无草皮之地</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超乎寻常的压力</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误的草坪尺寸</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>弹尽粮绝</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保护坚果</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挑战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种太阳花的艺术</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挑战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种植八卦图的艺术</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>植物僵尸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>植物僵尸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挑战模式：火焰豌豆</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游戏模式编号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模式名称</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>豌豆射手</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西瓜投手</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路障僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冒险模式</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>向日葵</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>瓜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>撑杆跳僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：白天</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>樱桃炸弹</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火爆辣椒</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>铁桶僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：夜晚</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坚果墙</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咖啡豆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：泳池</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寒冰射手</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>土豆雷</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>铁栅门僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：浓雾</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>竹子</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>神圣南瓜头</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>橄榄球僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：屋顶</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大嘴花</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机枪射手</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>舞者僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：毒雾</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双发射手</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灯笼椒投手</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月夜</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小喷菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吸金磁</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：白天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>困难</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阳光菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金盏花</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：夜晚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>困难</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大喷菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>忧郁蘑菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雪橇车僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：泳池</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>困难</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>墓碑吞噬者</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>毁灭菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：浓雾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>困难</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>磁力菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寒冰菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：屋顶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>困难</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>胆小菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>棱镜草</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：毒雾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>困难</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魅惑菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火焰菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>气球僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月夜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>困难</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寒冰生菜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光华花灵</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>矿工僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：白天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无尽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>睡莲</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>石榴炸弹</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跳跳僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：夜晚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无尽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大蒜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：泳池</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无尽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三线射手</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蹦极僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：浓雾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无尽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仙人掌</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扶梯僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：屋顶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无尽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地刺</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：毒雾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无尽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地刺王</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>巨人僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月夜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无尽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火炬树桩</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模仿者</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小鬼僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：毒雾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>极限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高坚果</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>爆炸坚果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保龄球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月夜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>极限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>海蘑菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>巨大坚果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保龄球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：白天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>极限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路灯花</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：夜晚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>极限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三叶草</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双发射手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：泳池</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>极限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缠绕水草</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>竹子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>半截</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：浓雾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>极限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>裂荚射手</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>石榴炸弹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：屋顶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>极限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杨桃</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会崩溃</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>植物僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>香蒲</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重置植物</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坚果保龄球模式</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>南瓜头</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>填补</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>土</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坑</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晴天</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卷心菜投手</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阳光</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老虎机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重要时间</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>花盆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钻石</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老虎机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宝石迷阵</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玉米投手</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购买潜水僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隐形食脑者</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双子向日葵</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购买奖杯</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看星星</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>窝瓜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>普通僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>僵尸水族馆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叶子保护伞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宝石迷阵转转看</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小僵尸大麻烦</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保护传送门</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>它们像柱子一样</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雪橇区</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>僵尸快跑</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锤僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>谁笑到最后</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>植物僵尸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坚果保龄球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跳跳舞会</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>僵王博士的复仇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>爆米花派对</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无菇之夜</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无草皮泳池</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>僵王博士的加速</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挑战模式：月光菇</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挑战模式：花生射手</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老虎机</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雨中种植物</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空袭</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冰冻关卡</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坟墓模式</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你能把它挖出来吗？</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黑暗的暴风雨夜</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蹦极闪电战</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>找松鼠</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7C</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7D</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>白天草坪</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>嚼坚果</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>豌豆战争</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终决战</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>射程问题</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终防线</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4092,7 +7485,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4171,6 +7564,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD343B1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -4238,7 +7643,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4267,12 +7672,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4314,6 +7713,36 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4322,6 +7751,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD343B1"/>
       <color rgb="FFEFDB29"/>
     </mruColors>
   </colors>
@@ -4593,11 +8023,2353 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADA7323-16BA-4F04-8437-A578D8AD6A59}">
+  <dimension ref="A1:S44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3:S44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="12.125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="15.25" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9" style="2"/>
+    <col min="9" max="9" width="15.125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="9" style="2"/>
+    <col min="13" max="13" width="23.875" style="2" customWidth="1"/>
+    <col min="14" max="15" width="9" style="2"/>
+    <col min="16" max="16" width="22.125" style="2" customWidth="1"/>
+    <col min="17" max="18" width="9" style="2"/>
+    <col min="19" max="19" width="24.25" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="K1" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="26"/>
+    </row>
+    <row r="2" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="G14" s="29">
+        <v>57</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="P18" s="31" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="S21" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="S23" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="R24" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="S24" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="R25" s="30">
+        <v>106</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q26" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="R26" s="30">
+        <v>107</v>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" s="30">
+        <v>100</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q27" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="R27" s="30">
+        <v>108</v>
+      </c>
+      <c r="S27" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="G28" s="29">
+        <v>65</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="P28" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q28" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="R28" s="30">
+        <v>109</v>
+      </c>
+      <c r="S28" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="P29" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q29" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="R29" s="30">
+        <v>110</v>
+      </c>
+      <c r="S29" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="P30" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q30" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="R30" s="30">
+        <v>111</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="32" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q31" s="30">
+        <v>70</v>
+      </c>
+      <c r="R31" s="30">
+        <v>112</v>
+      </c>
+      <c r="S31" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P32" s="32" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q32" s="30">
+        <v>71</v>
+      </c>
+      <c r="R32" s="30">
+        <v>113</v>
+      </c>
+      <c r="S32" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="H33" s="30">
+        <v>106</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q33" s="30">
+        <v>72</v>
+      </c>
+      <c r="R33" s="30">
+        <v>114</v>
+      </c>
+      <c r="S33" s="14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="H34" s="30">
+        <v>107</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q34" s="30">
+        <v>73</v>
+      </c>
+      <c r="R34" s="30">
+        <v>115</v>
+      </c>
+      <c r="S34" s="14" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="H35" s="30">
+        <v>108</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P35" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q35" s="30">
+        <v>74</v>
+      </c>
+      <c r="R35" s="30">
+        <v>116</v>
+      </c>
+      <c r="S35" s="14" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="H36" s="30">
+        <v>109</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="P36" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q36" s="30">
+        <v>75</v>
+      </c>
+      <c r="R36" s="30">
+        <v>117</v>
+      </c>
+      <c r="S36" s="14" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="H37" s="30">
+        <v>110</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q37" s="30">
+        <v>76</v>
+      </c>
+      <c r="R37" s="30">
+        <v>118</v>
+      </c>
+      <c r="S37" s="14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>564</v>
+      </c>
+      <c r="G38" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="H38" s="30">
+        <v>111</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="P38" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q38" s="30">
+        <v>77</v>
+      </c>
+      <c r="R38" s="30">
+        <v>119</v>
+      </c>
+      <c r="S38" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="P39" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q39" s="30">
+        <v>78</v>
+      </c>
+      <c r="R39" s="30">
+        <v>120</v>
+      </c>
+      <c r="S39" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="P40" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="Q40" s="30">
+        <v>79</v>
+      </c>
+      <c r="R40" s="30">
+        <v>121</v>
+      </c>
+      <c r="S40" s="14" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K41" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="P41" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q41" s="30" t="s">
+        <v>597</v>
+      </c>
+      <c r="R41" s="30">
+        <v>122</v>
+      </c>
+      <c r="S41" s="14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K42" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="P42" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q42" s="30" t="s">
+        <v>598</v>
+      </c>
+      <c r="R42" s="30">
+        <v>123</v>
+      </c>
+      <c r="S42" s="14" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K43" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="P43" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q43" s="30" t="s">
+        <v>599</v>
+      </c>
+      <c r="R43" s="30">
+        <v>124</v>
+      </c>
+      <c r="S43" s="12" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="P44" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q44" s="30" t="s">
+        <v>600</v>
+      </c>
+      <c r="R44" s="30">
+        <v>125</v>
+      </c>
+      <c r="S44" s="12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="K1:S1"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FE7B3D-F440-4C3C-B20E-E51FED9BBC9B}">
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P47" sqref="P47"/>
+    <sheetView topLeftCell="F22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37:S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4618,28 +10390,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="K1" s="9" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="K1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="11"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="26"/>
     </row>
     <row r="2" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -4696,7 +10468,7 @@
       <c r="S2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="12"/>
+      <c r="U2" s="10"/>
     </row>
     <row r="3" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -4705,7 +10477,7 @@
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -4714,7 +10486,7 @@
       <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -4723,7 +10495,7 @@
       <c r="H3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="16" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="5" t="s">
@@ -4741,7 +10513,7 @@
       <c r="O3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="11" t="s">
         <v>18</v>
       </c>
       <c r="Q3" s="5" t="s">
@@ -4750,7 +10522,7 @@
       <c r="R3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="14" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4761,7 +10533,7 @@
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -4770,7 +10542,7 @@
       <c r="E4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="16" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -4779,8 +10551,8 @@
       <c r="H4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="21" t="s">
-        <v>30</v>
+      <c r="I4" s="27" t="s">
+        <v>404</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>22</v>
@@ -4788,7 +10560,7 @@
       <c r="L4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="10" t="s">
         <v>31</v>
       </c>
       <c r="N4" s="5" t="s">
@@ -4797,7 +10569,7 @@
       <c r="O4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="11" t="s">
         <v>34</v>
       </c>
       <c r="Q4" s="5" t="s">
@@ -4806,10 +10578,10 @@
       <c r="R4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="U4" s="13"/>
+      <c r="U4" s="11"/>
     </row>
     <row r="5" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
@@ -4818,7 +10590,7 @@
       <c r="B5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -4827,7 +10599,7 @@
       <c r="E5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="16" t="s">
         <v>43</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -4836,7 +10608,7 @@
       <c r="H5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="16" t="s">
         <v>46</v>
       </c>
       <c r="K5" s="5" t="s">
@@ -4845,7 +10617,7 @@
       <c r="L5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="10" t="s">
         <v>47</v>
       </c>
       <c r="N5" s="5" t="s">
@@ -4854,7 +10626,7 @@
       <c r="O5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="11" t="s">
         <v>50</v>
       </c>
       <c r="Q5" s="5" t="s">
@@ -4863,7 +10635,7 @@
       <c r="R5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="S5" s="14" t="s">
         <v>347</v>
       </c>
     </row>
@@ -4874,7 +10646,7 @@
       <c r="B6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>56</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -4883,7 +10655,7 @@
       <c r="E6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>59</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -4892,7 +10664,7 @@
       <c r="H6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="16" t="s">
         <v>62</v>
       </c>
       <c r="K6" s="5" t="s">
@@ -4901,7 +10673,7 @@
       <c r="L6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="10" t="s">
         <v>63</v>
       </c>
       <c r="N6" s="5" t="s">
@@ -4910,7 +10682,7 @@
       <c r="O6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="11" t="s">
         <v>66</v>
       </c>
       <c r="Q6" s="5" t="s">
@@ -4919,10 +10691,10 @@
       <c r="R6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="S6" s="16" t="s">
+      <c r="S6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="14"/>
+      <c r="U6" s="12"/>
     </row>
     <row r="7" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
@@ -4931,7 +10703,7 @@
       <c r="B7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>72</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -4940,7 +10712,7 @@
       <c r="E7" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="16" t="s">
         <v>75</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -4949,7 +10721,7 @@
       <c r="H7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="16" t="s">
         <v>78</v>
       </c>
       <c r="K7" s="5" t="s">
@@ -4958,7 +10730,7 @@
       <c r="L7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="10" t="s">
         <v>79</v>
       </c>
       <c r="N7" s="5" t="s">
@@ -4967,7 +10739,7 @@
       <c r="O7" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="P7" s="11" t="s">
         <v>82</v>
       </c>
       <c r="Q7" s="5" t="s">
@@ -4976,7 +10748,7 @@
       <c r="R7" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="S7" s="16" t="s">
+      <c r="S7" s="14" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4987,7 +10759,7 @@
       <c r="B8" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -4996,7 +10768,7 @@
       <c r="E8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="16" t="s">
         <v>91</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -5005,7 +10777,7 @@
       <c r="H8" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="21" t="s">
         <v>94</v>
       </c>
       <c r="K8" s="5" t="s">
@@ -5014,7 +10786,7 @@
       <c r="L8" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="10" t="s">
         <v>95</v>
       </c>
       <c r="N8" s="5" t="s">
@@ -5023,7 +10795,7 @@
       <c r="O8" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="P8" s="11" t="s">
         <v>98</v>
       </c>
       <c r="Q8" s="5" t="s">
@@ -5032,10 +10804,10 @@
       <c r="R8" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="S8" s="16" t="s">
+      <c r="S8" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="15"/>
+      <c r="U8" s="13"/>
     </row>
     <row r="9" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
@@ -5044,7 +10816,7 @@
       <c r="B9" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>104</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -5053,7 +10825,7 @@
       <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="16" t="s">
         <v>105</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -5071,7 +10843,7 @@
       <c r="L9" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="10" t="s">
         <v>108</v>
       </c>
       <c r="N9" s="5" t="s">
@@ -5080,7 +10852,7 @@
       <c r="O9" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="11" t="s">
         <v>110</v>
       </c>
       <c r="Q9" s="5" t="s">
@@ -5089,7 +10861,7 @@
       <c r="R9" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="S9" s="16" t="s">
+      <c r="S9" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5100,7 +10872,7 @@
       <c r="B10" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>116</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -5109,7 +10881,7 @@
       <c r="E10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="16" t="s">
         <v>117</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -5118,7 +10890,7 @@
       <c r="H10" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="18" t="s">
         <v>119</v>
       </c>
       <c r="K10" s="5" t="s">
@@ -5127,7 +10899,7 @@
       <c r="L10" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="10" t="s">
         <v>120</v>
       </c>
       <c r="N10" s="5" t="s">
@@ -5136,7 +10908,7 @@
       <c r="O10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="11" t="s">
         <v>123</v>
       </c>
       <c r="Q10" s="5" t="s">
@@ -5145,10 +10917,10 @@
       <c r="R10" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="S10" s="16" t="s">
+      <c r="S10" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="U10" s="16"/>
+      <c r="U10" s="14"/>
     </row>
     <row r="11" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
@@ -5157,7 +10929,7 @@
       <c r="B11" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>129</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -5166,7 +10938,7 @@
       <c r="E11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="16" t="s">
         <v>130</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -5175,7 +10947,7 @@
       <c r="H11" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="18" t="s">
         <v>132</v>
       </c>
       <c r="K11" s="5" t="s">
@@ -5184,7 +10956,7 @@
       <c r="L11" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="M11" s="10" t="s">
         <v>133</v>
       </c>
       <c r="N11" s="5" t="s">
@@ -5193,7 +10965,7 @@
       <c r="O11" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="11" t="s">
         <v>136</v>
       </c>
       <c r="Q11" s="5" t="s">
@@ -5202,7 +10974,7 @@
       <c r="R11" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="S11" s="16" t="s">
+      <c r="S11" s="14" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5213,7 +10985,7 @@
       <c r="B12" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>142</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -5222,7 +10994,7 @@
       <c r="E12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="16" t="s">
         <v>143</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -5231,7 +11003,7 @@
       <c r="H12" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="18" t="s">
         <v>145</v>
       </c>
       <c r="K12" s="5" t="s">
@@ -5240,7 +11012,7 @@
       <c r="L12" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="10" t="s">
         <v>146</v>
       </c>
       <c r="N12" s="5" t="s">
@@ -5249,7 +11021,7 @@
       <c r="O12" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="P12" s="13" t="s">
+      <c r="P12" s="11" t="s">
         <v>149</v>
       </c>
       <c r="Q12" s="5" t="s">
@@ -5258,7 +11030,7 @@
       <c r="R12" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="S12" s="16" t="s">
+      <c r="S12" s="14" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5269,7 +11041,7 @@
       <c r="B13" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>155</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -5278,7 +11050,7 @@
       <c r="E13" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="16" t="s">
         <v>156</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -5287,7 +11059,7 @@
       <c r="H13" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="18" t="s">
         <v>158</v>
       </c>
       <c r="K13" s="5" t="s">
@@ -5296,7 +11068,7 @@
       <c r="L13" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="10" t="s">
         <v>159</v>
       </c>
       <c r="N13" s="5" t="s">
@@ -5305,7 +11077,7 @@
       <c r="O13" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="P13" s="13" t="s">
+      <c r="P13" s="11" t="s">
         <v>390</v>
       </c>
       <c r="Q13" s="5" t="s">
@@ -5314,10 +11086,10 @@
       <c r="R13" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="S13" s="16" t="s">
+      <c r="S13" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="U13" s="17"/>
+      <c r="U13" s="15"/>
     </row>
     <row r="14" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
@@ -5326,7 +11098,7 @@
       <c r="B14" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>168</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -5335,7 +11107,7 @@
       <c r="E14" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="21" t="s">
         <v>169</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -5344,7 +11116,7 @@
       <c r="H14" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="19" t="s">
         <v>171</v>
       </c>
       <c r="K14" s="5" t="s">
@@ -5353,7 +11125,7 @@
       <c r="L14" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M14" s="10" t="s">
         <v>172</v>
       </c>
       <c r="N14" s="5" t="s">
@@ -5362,7 +11134,7 @@
       <c r="O14" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="P14" s="13" t="s">
+      <c r="P14" s="11" t="s">
         <v>391</v>
       </c>
       <c r="Q14" s="5" t="s">
@@ -5371,7 +11143,7 @@
       <c r="R14" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="S14" s="16" t="s">
+      <c r="S14" s="14" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5382,7 +11154,7 @@
       <c r="B15" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>181</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -5391,7 +11163,7 @@
       <c r="E15" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="21" t="s">
         <v>182</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -5400,7 +11172,7 @@
       <c r="H15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="19" t="s">
         <v>183</v>
       </c>
       <c r="K15" s="5" t="s">
@@ -5409,7 +11181,7 @@
       <c r="L15" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="10" t="s">
         <v>184</v>
       </c>
       <c r="N15" s="5" t="s">
@@ -5418,7 +11190,7 @@
       <c r="O15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="13" t="s">
+      <c r="P15" s="11" t="s">
         <v>392</v>
       </c>
       <c r="Q15" s="5" t="s">
@@ -5427,10 +11199,10 @@
       <c r="R15" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="S15" s="16" t="s">
+      <c r="S15" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="U15" s="18"/>
+      <c r="U15" s="16"/>
     </row>
     <row r="16" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
@@ -5439,7 +11211,7 @@
       <c r="B16" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>191</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -5448,7 +11220,7 @@
       <c r="E16" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="21" t="s">
         <v>192</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -5457,7 +11229,7 @@
       <c r="H16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="20" t="s">
         <v>193</v>
       </c>
       <c r="K16" s="5" t="s">
@@ -5466,7 +11238,7 @@
       <c r="L16" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="M16" s="10" t="s">
         <v>194</v>
       </c>
       <c r="N16" s="5" t="s">
@@ -5475,7 +11247,7 @@
       <c r="O16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P16" s="13" t="s">
+      <c r="P16" s="11" t="s">
         <v>162</v>
       </c>
       <c r="Q16" s="5" t="s">
@@ -5484,7 +11256,7 @@
       <c r="R16" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="S16" s="16" t="s">
+      <c r="S16" s="14" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5495,7 +11267,7 @@
       <c r="B17" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>201</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -5504,7 +11276,7 @@
       <c r="E17" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="21" t="s">
         <v>202</v>
       </c>
       <c r="G17" s="5" t="s">
@@ -5513,7 +11285,7 @@
       <c r="H17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="20" t="s">
         <v>203</v>
       </c>
       <c r="K17" s="5" t="s">
@@ -5522,7 +11294,7 @@
       <c r="L17" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="M17" s="10" t="s">
         <v>204</v>
       </c>
       <c r="N17" s="5" t="s">
@@ -5531,7 +11303,7 @@
       <c r="O17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P17" s="14" t="s">
+      <c r="P17" s="12" t="s">
         <v>175</v>
       </c>
       <c r="Q17" s="5" t="s">
@@ -5540,10 +11312,10 @@
       <c r="R17" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="S17" s="16" t="s">
+      <c r="S17" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="U17" s="19"/>
+      <c r="U17" s="17"/>
     </row>
     <row r="18" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
@@ -5552,7 +11324,7 @@
       <c r="B18" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>211</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -5561,7 +11333,7 @@
       <c r="E18" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="21" t="s">
         <v>212</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -5570,7 +11342,7 @@
       <c r="H18" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="20" t="s">
         <v>213</v>
       </c>
       <c r="K18" s="5" t="s">
@@ -5579,7 +11351,7 @@
       <c r="L18" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="M18" s="10" t="s">
         <v>214</v>
       </c>
       <c r="N18" s="5" t="s">
@@ -5588,7 +11360,7 @@
       <c r="O18" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="P18" s="14" t="s">
+      <c r="P18" s="12" t="s">
         <v>185</v>
       </c>
       <c r="Q18" s="5" t="s">
@@ -5597,7 +11369,7 @@
       <c r="R18" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="S18" s="16" t="s">
+      <c r="S18" s="14" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5608,7 +11380,7 @@
       <c r="B19" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="16" t="s">
         <v>220</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -5617,7 +11389,7 @@
       <c r="E19" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="21" t="s">
         <v>222</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -5626,7 +11398,7 @@
       <c r="H19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="20" t="s">
         <v>223</v>
       </c>
       <c r="K19" s="5" t="s">
@@ -5635,7 +11407,7 @@
       <c r="L19" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="M19" s="10" t="s">
         <v>224</v>
       </c>
       <c r="N19" s="5" t="s">
@@ -5644,7 +11416,7 @@
       <c r="O19" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="P19" s="14" t="s">
+      <c r="P19" s="12" t="s">
         <v>195</v>
       </c>
       <c r="Q19" s="5" t="s">
@@ -5653,10 +11425,10 @@
       <c r="R19" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="S19" s="16" t="s">
+      <c r="S19" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="U19" s="20"/>
+      <c r="U19" s="18"/>
     </row>
     <row r="20" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
@@ -5665,7 +11437,7 @@
       <c r="B20" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>230</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -5674,7 +11446,7 @@
       <c r="E20" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="21" t="s">
         <v>231</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -5683,7 +11455,7 @@
       <c r="H20" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="20" t="s">
         <v>232</v>
       </c>
       <c r="K20" s="5" t="s">
@@ -5692,7 +11464,7 @@
       <c r="L20" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="M20" s="12" t="s">
+      <c r="M20" s="10" t="s">
         <v>233</v>
       </c>
       <c r="N20" s="5" t="s">
@@ -5701,7 +11473,7 @@
       <c r="O20" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="P20" s="14" t="s">
+      <c r="P20" s="12" t="s">
         <v>205</v>
       </c>
       <c r="Q20" s="5" t="s">
@@ -5710,7 +11482,7 @@
       <c r="R20" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="S20" s="16" t="s">
+      <c r="S20" s="14" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5721,7 +11493,7 @@
       <c r="B21" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="16" t="s">
         <v>237</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -5730,7 +11502,7 @@
       <c r="E21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="21" t="s">
         <v>238</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -5739,7 +11511,7 @@
       <c r="H21" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="20" t="s">
         <v>239</v>
       </c>
       <c r="K21" s="5" t="s">
@@ -5748,7 +11520,7 @@
       <c r="L21" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="M21" s="10" t="s">
         <v>240</v>
       </c>
       <c r="N21" s="5" t="s">
@@ -5757,7 +11529,7 @@
       <c r="O21" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="P21" s="14" t="s">
+      <c r="P21" s="12" t="s">
         <v>215</v>
       </c>
       <c r="Q21" s="5" t="s">
@@ -5766,10 +11538,10 @@
       <c r="R21" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="S21" s="16" t="s">
+      <c r="S21" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="U21" s="21"/>
+      <c r="U21" s="19"/>
     </row>
     <row r="22" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
@@ -5778,7 +11550,7 @@
       <c r="B22" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="16" t="s">
         <v>245</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -5787,7 +11559,7 @@
       <c r="E22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="21" t="s">
         <v>246</v>
       </c>
       <c r="G22" s="5" t="s">
@@ -5796,7 +11568,7 @@
       <c r="H22" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="20" t="s">
         <v>247</v>
       </c>
       <c r="K22" s="5" t="s">
@@ -5805,7 +11577,7 @@
       <c r="L22" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="M22" s="10" t="s">
         <v>248</v>
       </c>
       <c r="N22" s="5" t="s">
@@ -5814,7 +11586,7 @@
       <c r="O22" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="P22" s="14" t="s">
+      <c r="P22" s="12" t="s">
         <v>225</v>
       </c>
       <c r="Q22" s="5" t="s">
@@ -5823,7 +11595,7 @@
       <c r="R22" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="S22" s="16" t="s">
+      <c r="S22" s="14" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5834,7 +11606,7 @@
       <c r="B23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="16" t="s">
         <v>253</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -5843,7 +11615,7 @@
       <c r="E23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="21" t="s">
         <v>254</v>
       </c>
       <c r="G23" s="5" t="s">
@@ -5852,7 +11624,7 @@
       <c r="H23" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="20" t="s">
         <v>255</v>
       </c>
       <c r="K23" s="5" t="s">
@@ -5861,7 +11633,7 @@
       <c r="L23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="M23" s="10" t="s">
         <v>256</v>
       </c>
       <c r="N23" s="5" t="s">
@@ -5870,7 +11642,7 @@
       <c r="O23" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="P23" s="14" t="s">
+      <c r="P23" s="12" t="s">
         <v>234</v>
       </c>
       <c r="Q23" s="5" t="s">
@@ -5879,10 +11651,10 @@
       <c r="R23" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="S23" s="16" t="s">
+      <c r="S23" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="U23" s="22"/>
+      <c r="U23" s="20"/>
     </row>
     <row r="24" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
@@ -5891,7 +11663,7 @@
       <c r="B24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="16" t="s">
         <v>261</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -5900,7 +11672,7 @@
       <c r="E24" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="21" t="s">
         <v>262</v>
       </c>
       <c r="G24" s="5" t="s">
@@ -5909,7 +11681,7 @@
       <c r="H24" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="20" t="s">
         <v>263</v>
       </c>
       <c r="K24" s="5" t="s">
@@ -5918,7 +11690,7 @@
       <c r="L24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="M24" s="10" t="s">
         <v>264</v>
       </c>
       <c r="N24" s="5" t="s">
@@ -5927,7 +11699,7 @@
       <c r="O24" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="P24" s="15" t="s">
+      <c r="P24" s="13" t="s">
         <v>241</v>
       </c>
       <c r="Q24" s="5" t="s">
@@ -5936,7 +11708,7 @@
       <c r="R24" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="S24" s="16" t="s">
+      <c r="S24" s="14" t="s">
         <v>243</v>
       </c>
     </row>
@@ -5947,7 +11719,7 @@
       <c r="B25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="16" t="s">
         <v>269</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -5956,7 +11728,7 @@
       <c r="E25" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="21" t="s">
         <v>270</v>
       </c>
       <c r="G25" s="5" t="s">
@@ -5965,7 +11737,7 @@
       <c r="H25" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="20" t="s">
         <v>271</v>
       </c>
       <c r="K25" s="5" t="s">
@@ -5974,7 +11746,7 @@
       <c r="L25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="M25" s="12" t="s">
+      <c r="M25" s="10" t="s">
         <v>272</v>
       </c>
       <c r="N25" s="5" t="s">
@@ -5983,7 +11755,7 @@
       <c r="O25" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="P25" s="14" t="s">
+      <c r="P25" s="12" t="s">
         <v>249</v>
       </c>
       <c r="Q25" s="5" t="s">
@@ -5992,10 +11764,10 @@
       <c r="R25" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="S25" s="16" t="s">
+      <c r="S25" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="U25" s="23"/>
+      <c r="U25" s="21"/>
     </row>
     <row r="26" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
@@ -6004,7 +11776,7 @@
       <c r="B26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="16" t="s">
         <v>277</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -6013,7 +11785,7 @@
       <c r="E26" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="21" t="s">
         <v>278</v>
       </c>
       <c r="G26" s="5" t="s">
@@ -6022,7 +11794,7 @@
       <c r="H26" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="20" t="s">
         <v>279</v>
       </c>
       <c r="K26" s="5" t="s">
@@ -6031,7 +11803,7 @@
       <c r="L26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M26" s="12" t="s">
+      <c r="M26" s="10" t="s">
         <v>280</v>
       </c>
       <c r="N26" s="5" t="s">
@@ -6040,7 +11812,7 @@
       <c r="O26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P26" s="14" t="s">
+      <c r="P26" s="12" t="s">
         <v>257</v>
       </c>
       <c r="Q26" s="5" t="s">
@@ -6049,7 +11821,7 @@
       <c r="R26" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="S26" s="16" t="s">
+      <c r="S26" s="14" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6060,7 +11832,7 @@
       <c r="B27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="16" t="s">
         <v>285</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -6069,7 +11841,7 @@
       <c r="E27" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="21" t="s">
         <v>286</v>
       </c>
       <c r="G27" s="5" t="s">
@@ -6078,7 +11850,7 @@
       <c r="H27" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="20" t="s">
         <v>287</v>
       </c>
       <c r="K27" s="5" t="s">
@@ -6087,7 +11859,7 @@
       <c r="L27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="12" t="s">
+      <c r="M27" s="10" t="s">
         <v>288</v>
       </c>
       <c r="N27" s="5" t="s">
@@ -6096,7 +11868,7 @@
       <c r="O27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P27" s="14" t="s">
+      <c r="P27" s="12" t="s">
         <v>265</v>
       </c>
       <c r="Q27" s="5" t="s">
@@ -6105,7 +11877,7 @@
       <c r="R27" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="S27" s="16" t="s">
+      <c r="S27" s="14" t="s">
         <v>268</v>
       </c>
     </row>
@@ -6116,7 +11888,7 @@
       <c r="B28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="16" t="s">
         <v>293</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -6125,7 +11897,7 @@
       <c r="E28" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="21" t="s">
         <v>294</v>
       </c>
       <c r="G28" s="5" t="s">
@@ -6134,7 +11906,7 @@
       <c r="H28" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="I28" s="22" t="s">
+      <c r="I28" s="20" t="s">
         <v>295</v>
       </c>
       <c r="K28" s="5" t="s">
@@ -6143,7 +11915,7 @@
       <c r="L28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="M28" s="13" t="s">
+      <c r="M28" s="11" t="s">
         <v>296</v>
       </c>
       <c r="N28" s="5" t="s">
@@ -6152,7 +11924,7 @@
       <c r="O28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="P28" s="14" t="s">
+      <c r="P28" s="12" t="s">
         <v>273</v>
       </c>
       <c r="Q28" s="5" t="s">
@@ -6161,7 +11933,7 @@
       <c r="R28" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="S28" s="16" t="s">
+      <c r="S28" s="14" t="s">
         <v>276</v>
       </c>
     </row>
@@ -6172,7 +11944,7 @@
       <c r="B29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="16" t="s">
         <v>301</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -6181,7 +11953,7 @@
       <c r="E29" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="21" t="s">
         <v>302</v>
       </c>
       <c r="G29" s="5" t="s">
@@ -6190,7 +11962,7 @@
       <c r="H29" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="20" t="s">
         <v>303</v>
       </c>
       <c r="K29" s="5" t="s">
@@ -6199,7 +11971,7 @@
       <c r="L29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M29" s="13" t="s">
+      <c r="M29" s="11" t="s">
         <v>304</v>
       </c>
       <c r="N29" s="5" t="s">
@@ -6208,7 +11980,7 @@
       <c r="O29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="P29" s="14" t="s">
+      <c r="P29" s="12" t="s">
         <v>281</v>
       </c>
       <c r="Q29" s="5" t="s">
@@ -6217,7 +11989,7 @@
       <c r="R29" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="S29" s="16" t="s">
+      <c r="S29" s="14" t="s">
         <v>284</v>
       </c>
     </row>
@@ -6228,7 +12000,7 @@
       <c r="B30" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="16" t="s">
         <v>309</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -6237,7 +12009,7 @@
       <c r="E30" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="15" t="s">
         <v>310</v>
       </c>
       <c r="G30" s="5" t="s">
@@ -6246,7 +12018,7 @@
       <c r="H30" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="I30" s="22" t="s">
+      <c r="I30" s="20" t="s">
         <v>311</v>
       </c>
       <c r="K30" s="5" t="s">
@@ -6255,7 +12027,7 @@
       <c r="L30" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="M30" s="13" t="s">
+      <c r="M30" s="11" t="s">
         <v>312</v>
       </c>
       <c r="N30" s="5" t="s">
@@ -6264,7 +12036,7 @@
       <c r="O30" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="P30" s="14" t="s">
+      <c r="P30" s="12" t="s">
         <v>289</v>
       </c>
       <c r="Q30" s="5" t="s">
@@ -6273,7 +12045,7 @@
       <c r="R30" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="S30" s="16" t="s">
+      <c r="S30" s="14" t="s">
         <v>292</v>
       </c>
     </row>
@@ -6284,7 +12056,7 @@
       <c r="B31" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="16" t="s">
         <v>317</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -6293,7 +12065,7 @@
       <c r="E31" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="16" t="s">
         <v>318</v>
       </c>
       <c r="G31" s="5" t="s">
@@ -6302,7 +12074,7 @@
       <c r="H31" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="I31" s="18" t="s">
+      <c r="I31" s="16" t="s">
         <v>319</v>
       </c>
       <c r="K31" s="5" t="s">
@@ -6311,7 +12083,7 @@
       <c r="L31" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M31" s="13" t="s">
+      <c r="M31" s="11" t="s">
         <v>320</v>
       </c>
       <c r="N31" s="5" t="s">
@@ -6320,7 +12092,7 @@
       <c r="O31" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P31" s="15" t="s">
+      <c r="P31" s="13" t="s">
         <v>297</v>
       </c>
       <c r="Q31" s="5" t="s">
@@ -6329,7 +12101,7 @@
       <c r="R31" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="S31" s="16" t="s">
+      <c r="S31" s="14" t="s">
         <v>299</v>
       </c>
     </row>
@@ -6340,7 +12112,7 @@
       <c r="L32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M32" s="13" t="s">
+      <c r="M32" s="11" t="s">
         <v>324</v>
       </c>
       <c r="N32" s="5" t="s">
@@ -6349,7 +12121,7 @@
       <c r="O32" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="P32" s="16" t="s">
+      <c r="P32" s="14" t="s">
         <v>305</v>
       </c>
       <c r="Q32" s="5" t="s">
@@ -6358,29 +12130,29 @@
       <c r="R32" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="S32" s="16" t="s">
+      <c r="S32" s="14" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
       <c r="K33" s="5" t="s">
         <v>25</v>
       </c>
       <c r="L33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M33" s="13" t="s">
+      <c r="M33" s="11" t="s">
         <v>329</v>
       </c>
       <c r="N33" s="5" t="s">
@@ -6389,7 +12161,7 @@
       <c r="O33" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="P33" s="16" t="s">
+      <c r="P33" s="14" t="s">
         <v>313</v>
       </c>
       <c r="Q33" s="5" t="s">
@@ -6398,31 +12170,31 @@
       <c r="R33" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="S33" s="16" t="s">
+      <c r="S33" s="14" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
       <c r="K34" s="5" t="s">
         <v>41</v>
       </c>
       <c r="L34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M34" s="13" t="s">
+      <c r="M34" s="11" t="s">
         <v>335</v>
       </c>
       <c r="N34" s="5" t="s">
@@ -6431,7 +12203,7 @@
       <c r="O34" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="P34" s="16" t="s">
+      <c r="P34" s="14" t="s">
         <v>321</v>
       </c>
       <c r="Q34" s="5" t="s">
@@ -6440,7 +12212,7 @@
       <c r="R34" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="S34" s="16" t="s">
+      <c r="S34" s="14" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6478,7 +12250,7 @@
       <c r="L35" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M35" s="13" t="s">
+      <c r="M35" s="11" t="s">
         <v>339</v>
       </c>
       <c r="N35" s="5" t="s">
@@ -6487,7 +12259,7 @@
       <c r="O35" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="P35" s="16" t="s">
+      <c r="P35" s="14" t="s">
         <v>325</v>
       </c>
       <c r="Q35" s="5" t="s">
@@ -6496,7 +12268,7 @@
       <c r="R35" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="S35" s="16" t="s">
+      <c r="S35" s="14" t="s">
         <v>327</v>
       </c>
     </row>
@@ -6507,7 +12279,7 @@
       <c r="B36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -6516,7 +12288,7 @@
       <c r="E36" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="16" t="s">
         <v>59</v>
       </c>
       <c r="G36" s="5" t="s">
@@ -6525,7 +12297,7 @@
       <c r="H36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="22" t="s">
+      <c r="I36" s="20" t="s">
         <v>193</v>
       </c>
       <c r="K36" s="5" t="s">
@@ -6534,7 +12306,7 @@
       <c r="L36" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="M36" s="13" t="s">
+      <c r="M36" s="11" t="s">
         <v>343</v>
       </c>
       <c r="N36" s="5" t="s">
@@ -6543,7 +12315,7 @@
       <c r="O36" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="P36" s="16" t="s">
+      <c r="P36" s="14" t="s">
         <v>330</v>
       </c>
       <c r="Q36" s="5" t="s">
@@ -6552,7 +12324,7 @@
       <c r="R36" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="S36" s="16" t="s">
+      <c r="S36" s="14" t="s">
         <v>332</v>
       </c>
     </row>
@@ -6563,7 +12335,7 @@
       <c r="B37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -6572,7 +12344,7 @@
       <c r="E37" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="16" t="s">
         <v>75</v>
       </c>
       <c r="G37" s="5" t="s">
@@ -6581,7 +12353,7 @@
       <c r="H37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I37" s="22" t="s">
+      <c r="I37" s="20" t="s">
         <v>345</v>
       </c>
       <c r="K37" s="5" t="s">
@@ -6590,7 +12362,7 @@
       <c r="L37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="M37" s="13" t="s">
+      <c r="M37" s="11" t="s">
         <v>346</v>
       </c>
       <c r="N37" s="5" t="s">
@@ -6599,7 +12371,7 @@
       <c r="O37" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="P37" s="16" t="s">
+      <c r="P37" s="14" t="s">
         <v>336</v>
       </c>
       <c r="Q37" s="5" t="s">
@@ -6608,7 +12380,7 @@
       <c r="R37" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="S37" s="14" t="s">
+      <c r="S37" s="12" t="s">
         <v>338</v>
       </c>
     </row>
@@ -6619,7 +12391,7 @@
       <c r="B38" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -6628,7 +12400,7 @@
       <c r="E38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="16" t="s">
         <v>91</v>
       </c>
       <c r="G38" s="5" t="s">
@@ -6637,7 +12409,7 @@
       <c r="H38" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I38" s="22" t="s">
+      <c r="I38" s="20" t="s">
         <v>203</v>
       </c>
       <c r="Q38" s="5" t="s">
@@ -6646,7 +12418,7 @@
       <c r="R38" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="S38" s="14" t="s">
+      <c r="S38" s="12" t="s">
         <v>342</v>
       </c>
     </row>
@@ -6657,7 +12429,7 @@
       <c r="B39" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="16" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -6666,7 +12438,7 @@
       <c r="E39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="16" t="s">
         <v>105</v>
       </c>
       <c r="G39" s="5" t="s">
@@ -6675,14 +12447,14 @@
       <c r="H39" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I39" s="22" t="s">
+      <c r="I39" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="K39" s="8" t="s">
+      <c r="K39" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
     </row>
     <row r="40" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
@@ -6691,7 +12463,7 @@
       <c r="B40" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="16" t="s">
         <v>72</v>
       </c>
       <c r="D40" s="5" t="s">
@@ -6700,7 +12472,7 @@
       <c r="E40" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="16" t="s">
         <v>117</v>
       </c>
       <c r="G40" s="5" t="s">
@@ -6709,7 +12481,7 @@
       <c r="H40" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I40" s="22" t="s">
+      <c r="I40" s="20" t="s">
         <v>223</v>
       </c>
       <c r="K40" s="5" t="s">
@@ -6729,7 +12501,7 @@
       <c r="B41" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="16" t="s">
         <v>88</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -6738,7 +12510,7 @@
       <c r="E41" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="16" t="s">
         <v>130</v>
       </c>
       <c r="G41" s="5" t="s">
@@ -6747,7 +12519,7 @@
       <c r="H41" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I41" s="22" t="s">
+      <c r="I41" s="20" t="s">
         <v>348</v>
       </c>
       <c r="K41" s="5" t="s">
@@ -6767,7 +12539,7 @@
       <c r="B42" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>104</v>
       </c>
       <c r="D42" s="5" t="s">
@@ -6776,7 +12548,7 @@
       <c r="E42" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="16" t="s">
         <v>143</v>
       </c>
       <c r="G42" s="5" t="s">
@@ -6785,7 +12557,7 @@
       <c r="H42" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I42" s="22" t="s">
+      <c r="I42" s="20" t="s">
         <v>271</v>
       </c>
       <c r="K42" s="5" t="s">
@@ -6805,7 +12577,7 @@
       <c r="B43" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="16" t="s">
         <v>116</v>
       </c>
       <c r="D43" s="5" t="s">
@@ -6814,7 +12586,7 @@
       <c r="E43" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="16" t="s">
         <v>156</v>
       </c>
       <c r="G43" s="5" t="s">
@@ -6823,7 +12595,7 @@
       <c r="H43" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="I43" s="22" t="s">
+      <c r="I43" s="20" t="s">
         <v>255</v>
       </c>
       <c r="K43" s="5" t="s">
@@ -6843,7 +12615,7 @@
       <c r="B44" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="16" t="s">
         <v>129</v>
       </c>
       <c r="D44" s="5" t="s">
@@ -6852,7 +12624,7 @@
       <c r="E44" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F44" s="21" t="s">
         <v>169</v>
       </c>
       <c r="G44" s="5" t="s">
@@ -6861,7 +12633,7 @@
       <c r="H44" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="I44" s="22" t="s">
+      <c r="I44" s="20" t="s">
         <v>295</v>
       </c>
       <c r="K44" s="5" t="s">
@@ -6881,7 +12653,7 @@
       <c r="B45" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="16" t="s">
         <v>142</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -6890,7 +12662,7 @@
       <c r="E45" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="F45" s="21" t="s">
         <v>182</v>
       </c>
       <c r="G45" s="5" t="s">
@@ -6899,7 +12671,7 @@
       <c r="H45" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I45" s="22" t="s">
+      <c r="I45" s="20" t="s">
         <v>349</v>
       </c>
       <c r="K45" s="5" t="s">
@@ -6919,7 +12691,7 @@
       <c r="B46" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="16" t="s">
         <v>155</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -6928,7 +12700,7 @@
       <c r="E46" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="F46" s="21" t="s">
         <v>192</v>
       </c>
       <c r="G46" s="5" t="s">
@@ -6937,7 +12709,7 @@
       <c r="H46" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="I46" s="22" t="s">
+      <c r="I46" s="20" t="s">
         <v>350</v>
       </c>
       <c r="K46" s="5" t="s">
@@ -6957,7 +12729,7 @@
       <c r="B47" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="16" t="s">
         <v>168</v>
       </c>
       <c r="D47" s="5" t="s">
@@ -6966,7 +12738,7 @@
       <c r="E47" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="F47" s="21" t="s">
         <v>202</v>
       </c>
       <c r="G47" s="5" t="s">
@@ -6975,7 +12747,7 @@
       <c r="H47" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="I47" s="22" t="s">
+      <c r="I47" s="20" t="s">
         <v>351</v>
       </c>
       <c r="K47" s="5" t="s">
@@ -6995,7 +12767,7 @@
       <c r="B48" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="16" t="s">
         <v>181</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -7004,7 +12776,7 @@
       <c r="E48" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F48" s="23" t="s">
+      <c r="F48" s="21" t="s">
         <v>212</v>
       </c>
       <c r="G48" s="5" t="s">
@@ -7013,7 +12785,7 @@
       <c r="H48" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="I48" s="22" t="s">
+      <c r="I48" s="20" t="s">
         <v>279</v>
       </c>
       <c r="K48" s="5" t="s">
@@ -7033,7 +12805,7 @@
       <c r="B49" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="16" t="s">
         <v>191</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -7042,7 +12814,7 @@
       <c r="E49" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F49" s="23" t="s">
+      <c r="F49" s="21" t="s">
         <v>222</v>
       </c>
       <c r="G49" s="5" t="s">
@@ -7051,7 +12823,7 @@
       <c r="H49" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="I49" s="22" t="s">
+      <c r="I49" s="20" t="s">
         <v>352</v>
       </c>
       <c r="K49" s="5" t="s">
@@ -7071,7 +12843,7 @@
       <c r="B50" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="16" t="s">
         <v>201</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -7080,7 +12852,7 @@
       <c r="E50" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F50" s="23" t="s">
+      <c r="F50" s="21" t="s">
         <v>231</v>
       </c>
       <c r="G50" s="5" t="s">
@@ -7089,7 +12861,7 @@
       <c r="H50" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="I50" s="22" t="s">
+      <c r="I50" s="20" t="s">
         <v>353</v>
       </c>
       <c r="K50" s="5" t="s">
@@ -7109,7 +12881,7 @@
       <c r="B51" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="16" t="s">
         <v>211</v>
       </c>
       <c r="D51" s="5" t="s">
@@ -7118,7 +12890,7 @@
       <c r="E51" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F51" s="23" t="s">
+      <c r="F51" s="21" t="s">
         <v>238</v>
       </c>
       <c r="G51" s="5" t="s">
@@ -7127,7 +12899,7 @@
       <c r="H51" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="I51" s="22" t="s">
+      <c r="I51" s="20" t="s">
         <v>354</v>
       </c>
       <c r="K51" s="5" t="s">
@@ -7147,7 +12919,7 @@
       <c r="B52" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="16" t="s">
         <v>220</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -7156,7 +12928,7 @@
       <c r="E52" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F52" s="23" t="s">
+      <c r="F52" s="21" t="s">
         <v>246</v>
       </c>
       <c r="G52" s="5" t="s">
@@ -7165,7 +12937,7 @@
       <c r="H52" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="I52" s="22" t="s">
+      <c r="I52" s="20" t="s">
         <v>263</v>
       </c>
       <c r="K52" s="5" t="s">
@@ -7185,7 +12957,7 @@
       <c r="B53" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="16" t="s">
         <v>230</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -7194,7 +12966,7 @@
       <c r="E53" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="F53" s="21" t="s">
         <v>254</v>
       </c>
       <c r="G53" s="5" t="s">
@@ -7203,7 +12975,7 @@
       <c r="H53" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="I53" s="22" t="s">
+      <c r="I53" s="20" t="s">
         <v>239</v>
       </c>
       <c r="K53" s="5" t="s">
@@ -7223,7 +12995,7 @@
       <c r="B54" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="16" t="s">
         <v>237</v>
       </c>
       <c r="D54" s="5" t="s">
@@ -7232,7 +13004,7 @@
       <c r="E54" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F54" s="23" t="s">
+      <c r="F54" s="21" t="s">
         <v>262</v>
       </c>
       <c r="G54" s="5" t="s">
@@ -7241,7 +13013,7 @@
       <c r="H54" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="I54" s="22" t="s">
+      <c r="I54" s="20" t="s">
         <v>287</v>
       </c>
       <c r="K54" s="5" t="s">
@@ -7261,7 +13033,7 @@
       <c r="B55" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="16" t="s">
         <v>245</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -7270,7 +13042,7 @@
       <c r="E55" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F55" s="23" t="s">
+      <c r="F55" s="21" t="s">
         <v>270</v>
       </c>
       <c r="G55" s="5" t="s">
@@ -7279,7 +13051,7 @@
       <c r="H55" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="I55" s="22" t="s">
+      <c r="I55" s="20" t="s">
         <v>355</v>
       </c>
       <c r="K55" s="5" t="s">
@@ -7288,7 +13060,7 @@
       <c r="L55" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="M55" s="24" t="s">
+      <c r="M55" s="22" t="s">
         <v>398</v>
       </c>
     </row>
@@ -7299,7 +13071,7 @@
       <c r="B56" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="16" t="s">
         <v>253</v>
       </c>
       <c r="D56" s="5" t="s">
@@ -7308,7 +13080,7 @@
       <c r="E56" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F56" s="23" t="s">
+      <c r="F56" s="21" t="s">
         <v>278</v>
       </c>
       <c r="G56" s="5" t="s">
@@ -7317,7 +13089,7 @@
       <c r="H56" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I56" s="22" t="s">
+      <c r="I56" s="20" t="s">
         <v>247</v>
       </c>
     </row>
@@ -7328,7 +13100,7 @@
       <c r="B57" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="16" t="s">
         <v>261</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -7337,7 +13109,7 @@
       <c r="E57" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F57" s="23" t="s">
+      <c r="F57" s="21" t="s">
         <v>286</v>
       </c>
       <c r="G57" s="5" t="s">
@@ -7346,7 +13118,7 @@
       <c r="H57" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I57" s="22" t="s">
+      <c r="I57" s="20" t="s">
         <v>232</v>
       </c>
     </row>
@@ -7357,7 +13129,7 @@
       <c r="B58" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="16" t="s">
         <v>269</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -7366,7 +13138,7 @@
       <c r="E58" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="F58" s="23" t="s">
+      <c r="F58" s="21" t="s">
         <v>294</v>
       </c>
       <c r="G58" s="5" t="s">
@@ -7375,7 +13147,7 @@
       <c r="H58" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I58" s="22" t="s">
+      <c r="I58" s="20" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7386,7 +13158,7 @@
       <c r="B59" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="16" t="s">
         <v>277</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -7395,7 +13167,7 @@
       <c r="E59" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="21" t="s">
         <v>302</v>
       </c>
       <c r="G59" s="5" t="s">
@@ -7404,7 +13176,7 @@
       <c r="H59" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I59" s="22" t="s">
+      <c r="I59" s="20" t="s">
         <v>303</v>
       </c>
     </row>
@@ -7415,7 +13187,7 @@
       <c r="B60" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="16" t="s">
         <v>285</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -7424,7 +13196,7 @@
       <c r="E60" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F60" s="17" t="s">
+      <c r="F60" s="15" t="s">
         <v>310</v>
       </c>
       <c r="G60" s="5" t="s">
@@ -7433,7 +13205,7 @@
       <c r="H60" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I60" s="22" t="s">
+      <c r="I60" s="20" t="s">
         <v>311</v>
       </c>
     </row>
@@ -7444,7 +13216,7 @@
       <c r="B61" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="16" t="s">
         <v>293</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -7453,7 +13225,7 @@
       <c r="E61" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F61" s="18" t="s">
+      <c r="F61" s="16" t="s">
         <v>318</v>
       </c>
       <c r="G61" s="5" t="s">
@@ -7462,7 +13234,7 @@
       <c r="H61" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I61" s="22" t="s">
+      <c r="I61" s="20" t="s">
         <v>357</v>
       </c>
     </row>
@@ -7473,7 +13245,7 @@
       <c r="B62" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="16" t="s">
         <v>301</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -7482,7 +13254,7 @@
       <c r="E62" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F62" s="18" t="s">
+      <c r="F62" s="16" t="s">
         <v>14</v>
       </c>
       <c r="G62" s="5" t="s">
@@ -7491,7 +13263,7 @@
       <c r="H62" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I62" s="22" t="s">
+      <c r="I62" s="20" t="s">
         <v>358</v>
       </c>
     </row>
@@ -7502,7 +13274,7 @@
       <c r="B63" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="16" t="s">
         <v>309</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -7511,7 +13283,7 @@
       <c r="E63" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F63" s="21" t="s">
+      <c r="F63" s="19" t="s">
         <v>30</v>
       </c>
       <c r="G63" s="5" t="s">
@@ -7520,7 +13292,7 @@
       <c r="H63" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I63" s="22" t="s">
+      <c r="I63" s="20" t="s">
         <v>359</v>
       </c>
     </row>
@@ -7531,7 +13303,7 @@
       <c r="B64" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="16" t="s">
         <v>317</v>
       </c>
       <c r="D64" s="5" t="s">
@@ -7540,7 +13312,7 @@
       <c r="E64" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F64" s="18" t="s">
+      <c r="F64" s="16" t="s">
         <v>46</v>
       </c>
       <c r="G64" s="5" t="s">
@@ -7549,7 +13321,7 @@
       <c r="H64" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I64" s="22" t="s">
+      <c r="I64" s="20" t="s">
         <v>360</v>
       </c>
     </row>
@@ -7560,7 +13332,7 @@
       <c r="B65" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D65" s="5" t="s">
@@ -7569,7 +13341,7 @@
       <c r="E65" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F65" s="18" t="s">
+      <c r="F65" s="16" t="s">
         <v>62</v>
       </c>
       <c r="G65" s="5" t="s">
@@ -7578,7 +13350,7 @@
       <c r="H65" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I65" s="22" t="s">
+      <c r="I65" s="20" t="s">
         <v>361</v>
       </c>
     </row>
@@ -7589,7 +13361,7 @@
       <c r="B66" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="5" t="s">
@@ -7598,7 +13370,7 @@
       <c r="E66" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F66" s="18" t="s">
+      <c r="F66" s="16" t="s">
         <v>78</v>
       </c>
       <c r="G66" s="5" t="s">
@@ -7607,7 +13379,7 @@
       <c r="H66" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I66" s="22" t="s">
+      <c r="I66" s="20" t="s">
         <v>362</v>
       </c>
     </row>
@@ -7618,7 +13390,7 @@
       <c r="B67" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="16" t="s">
         <v>43</v>
       </c>
       <c r="D67" s="5" t="s">
@@ -7627,7 +13399,7 @@
       <c r="E67" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F67" s="23" t="s">
+      <c r="F67" s="21" t="s">
         <v>94</v>
       </c>
       <c r="G67" s="5" t="s">
@@ -7636,7 +13408,7 @@
       <c r="H67" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I67" s="22" t="s">
+      <c r="I67" s="20" t="s">
         <v>363</v>
       </c>
     </row>
@@ -7648,7 +13420,7 @@
       <c r="H68" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I68" s="22" t="s">
+      <c r="I68" s="20" t="s">
         <v>364</v>
       </c>
     </row>
@@ -7660,18 +13432,18 @@
       <c r="H69" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I69" s="22" t="s">
+      <c r="I69" s="20" t="s">
         <v>365</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="K39:M39"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="A33:I33"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K39:M39"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7679,7 +13451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V69"/>
   <sheetViews>
@@ -7711,28 +13483,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="K1" s="9" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="K1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="11"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="26"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -9450,17 +15222,17 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
       <c r="K33" s="3" t="s">
         <v>25</v>
       </c>
@@ -9490,19 +15262,19 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
       <c r="K34" s="3" t="s">
         <v>41</v>
       </c>
@@ -9738,11 +15510,11 @@
       <c r="I39" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="K39" s="8" t="s">
+      <c r="K39" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>

--- a/内部编号列表/[decomp]Perfect Floral Blessing.xlsx
+++ b/内部编号列表/[decomp]Perfect Floral Blessing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Administrator\Documents\GitHub\PvZHB-CheatTables\内部编号列表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D183F45-E996-4BD1-ADD5-5299B816B92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE6EEB5-DCB8-4393-AD49-07AA11F313B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2779" uniqueCount="607">
   <si>
     <r>
       <rPr>
@@ -7643,7 +7643,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7716,15 +7716,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7741,6 +7732,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8024,10 +8027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADA7323-16BA-4F04-8437-A578D8AD6A59}">
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:S44"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8048,28 +8051,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="K1" s="24" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="K1" s="31" t="s">
         <v>448</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="26"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="33"/>
     </row>
     <row r="2" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
@@ -8762,7 +8765,7 @@
       <c r="F14" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="26">
         <v>57</v>
       </c>
       <c r="H14" s="8" t="s">
@@ -9010,7 +9013,7 @@
       <c r="O18" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="P18" s="31" t="s">
+      <c r="P18" s="28" t="s">
         <v>606</v>
       </c>
       <c r="Q18" s="8" t="s">
@@ -9095,7 +9098,7 @@
       <c r="E20" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="25" t="s">
         <v>405</v>
       </c>
       <c r="G20" s="8" t="s">
@@ -9151,7 +9154,7 @@
       <c r="E21" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="25" t="s">
         <v>399</v>
       </c>
       <c r="G21" s="8" t="s">
@@ -9207,7 +9210,7 @@
       <c r="E22" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="25" t="s">
         <v>400</v>
       </c>
       <c r="G22" s="8" t="s">
@@ -9263,7 +9266,7 @@
       <c r="E23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="25" t="s">
         <v>401</v>
       </c>
       <c r="G23" s="8" t="s">
@@ -9319,7 +9322,7 @@
       <c r="E24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="25" t="s">
         <v>402</v>
       </c>
       <c r="G24" s="8" t="s">
@@ -9408,7 +9411,7 @@
       <c r="Q25" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="R25" s="30">
+      <c r="R25" s="27">
         <v>106</v>
       </c>
       <c r="S25" s="14" t="s">
@@ -9461,10 +9464,10 @@
       <c r="P26" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="Q26" s="30" t="s">
+      <c r="Q26" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="R26" s="30">
+      <c r="R26" s="27">
         <v>107</v>
       </c>
       <c r="S26" s="14" t="s">
@@ -9493,7 +9496,7 @@
       <c r="G27" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27" s="27">
         <v>100</v>
       </c>
       <c r="I27" s="20" t="s">
@@ -9517,10 +9520,10 @@
       <c r="P27" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="Q27" s="30" t="s">
+      <c r="Q27" s="27" t="s">
         <v>430</v>
       </c>
-      <c r="R27" s="30">
+      <c r="R27" s="27">
         <v>108</v>
       </c>
       <c r="S27" s="14" t="s">
@@ -9546,7 +9549,7 @@
       <c r="F28" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="26">
         <v>65</v>
       </c>
       <c r="H28" s="8" t="s">
@@ -9573,10 +9576,10 @@
       <c r="P28" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="Q28" s="30" t="s">
+      <c r="Q28" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="R28" s="30">
+      <c r="R28" s="27">
         <v>109</v>
       </c>
       <c r="S28" s="14" t="s">
@@ -9629,10 +9632,10 @@
       <c r="P29" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="Q29" s="30" t="s">
+      <c r="Q29" s="27" t="s">
         <v>432</v>
       </c>
-      <c r="R29" s="30">
+      <c r="R29" s="27">
         <v>110</v>
       </c>
       <c r="S29" s="14" t="s">
@@ -9682,13 +9685,13 @@
       <c r="O30" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="P30" s="32" t="s">
+      <c r="P30" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="Q30" s="30" t="s">
+      <c r="Q30" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="R30" s="30">
+      <c r="R30" s="27">
         <v>111</v>
       </c>
       <c r="S30" s="14" t="s">
@@ -9738,13 +9741,13 @@
       <c r="O31" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P31" s="32" t="s">
+      <c r="P31" s="29" t="s">
         <v>586</v>
       </c>
-      <c r="Q31" s="30">
+      <c r="Q31" s="27">
         <v>70</v>
       </c>
-      <c r="R31" s="30">
+      <c r="R31" s="27">
         <v>112</v>
       </c>
       <c r="S31" s="14" t="s">
@@ -9794,13 +9797,13 @@
       <c r="O32" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="P32" s="32" t="s">
+      <c r="P32" s="29" t="s">
         <v>587</v>
       </c>
-      <c r="Q32" s="30">
+      <c r="Q32" s="27">
         <v>71</v>
       </c>
-      <c r="R32" s="30">
+      <c r="R32" s="27">
         <v>113</v>
       </c>
       <c r="S32" s="14" t="s">
@@ -9829,7 +9832,7 @@
       <c r="G33" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="H33" s="30">
+      <c r="H33" s="27">
         <v>106</v>
       </c>
       <c r="I33" s="20" t="s">
@@ -9853,10 +9856,10 @@
       <c r="P33" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="Q33" s="30">
+      <c r="Q33" s="27">
         <v>72</v>
       </c>
-      <c r="R33" s="30">
+      <c r="R33" s="27">
         <v>114</v>
       </c>
       <c r="S33" s="14" t="s">
@@ -9882,10 +9885,10 @@
       <c r="F34" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="G34" s="30" t="s">
+      <c r="G34" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="H34" s="30">
+      <c r="H34" s="27">
         <v>107</v>
       </c>
       <c r="I34" s="20" t="s">
@@ -9909,10 +9912,10 @@
       <c r="P34" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="Q34" s="30">
+      <c r="Q34" s="27">
         <v>73</v>
       </c>
-      <c r="R34" s="30">
+      <c r="R34" s="27">
         <v>115</v>
       </c>
       <c r="S34" s="14" t="s">
@@ -9938,10 +9941,10 @@
       <c r="F35" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="27" t="s">
         <v>430</v>
       </c>
-      <c r="H35" s="30">
+      <c r="H35" s="27">
         <v>108</v>
       </c>
       <c r="I35" s="20" t="s">
@@ -9965,10 +9968,10 @@
       <c r="P35" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="Q35" s="30">
+      <c r="Q35" s="27">
         <v>74</v>
       </c>
-      <c r="R35" s="30">
+      <c r="R35" s="27">
         <v>116</v>
       </c>
       <c r="S35" s="14" t="s">
@@ -9994,10 +9997,10 @@
       <c r="F36" s="18" t="s">
         <v>558</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="G36" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H36" s="27">
         <v>109</v>
       </c>
       <c r="I36" s="20" t="s">
@@ -10021,10 +10024,10 @@
       <c r="P36" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="Q36" s="30">
+      <c r="Q36" s="27">
         <v>75</v>
       </c>
-      <c r="R36" s="30">
+      <c r="R36" s="27">
         <v>117</v>
       </c>
       <c r="S36" s="14" t="s">
@@ -10050,10 +10053,10 @@
       <c r="F37" s="19" t="s">
         <v>561</v>
       </c>
-      <c r="G37" s="30" t="s">
+      <c r="G37" s="27" t="s">
         <v>432</v>
       </c>
-      <c r="H37" s="30">
+      <c r="H37" s="27">
         <v>110</v>
       </c>
       <c r="I37" s="20" t="s">
@@ -10077,10 +10080,10 @@
       <c r="P37" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="Q37" s="30">
+      <c r="Q37" s="27">
         <v>76</v>
       </c>
-      <c r="R37" s="30">
+      <c r="R37" s="27">
         <v>118</v>
       </c>
       <c r="S37" s="14" t="s">
@@ -10106,10 +10109,10 @@
       <c r="F38" s="19" t="s">
         <v>564</v>
       </c>
-      <c r="G38" s="30" t="s">
+      <c r="G38" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="H38" s="30">
+      <c r="H38" s="27">
         <v>111</v>
       </c>
       <c r="I38" s="16" t="s">
@@ -10133,10 +10136,10 @@
       <c r="P38" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="Q38" s="30">
+      <c r="Q38" s="27">
         <v>77</v>
       </c>
-      <c r="R38" s="30">
+      <c r="R38" s="27">
         <v>119</v>
       </c>
       <c r="S38" s="14" t="s">
@@ -10180,10 +10183,10 @@
       <c r="P39" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="Q39" s="30">
+      <c r="Q39" s="27">
         <v>78</v>
       </c>
-      <c r="R39" s="30">
+      <c r="R39" s="27">
         <v>120</v>
       </c>
       <c r="S39" s="14" t="s">
@@ -10227,10 +10230,10 @@
       <c r="P40" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="Q40" s="30">
+      <c r="Q40" s="27">
         <v>79</v>
       </c>
-      <c r="R40" s="30">
+      <c r="R40" s="27">
         <v>121</v>
       </c>
       <c r="S40" s="14" t="s">
@@ -10256,10 +10259,10 @@
       <c r="P41" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="Q41" s="30" t="s">
+      <c r="Q41" s="27" t="s">
         <v>597</v>
       </c>
-      <c r="R41" s="30">
+      <c r="R41" s="27">
         <v>122</v>
       </c>
       <c r="S41" s="14" t="s">
@@ -10285,10 +10288,10 @@
       <c r="P42" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="Q42" s="30" t="s">
+      <c r="Q42" s="27" t="s">
         <v>598</v>
       </c>
-      <c r="R42" s="30">
+      <c r="R42" s="27">
         <v>123</v>
       </c>
       <c r="S42" s="14" t="s">
@@ -10314,10 +10317,10 @@
       <c r="P43" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="Q43" s="30" t="s">
+      <c r="Q43" s="27" t="s">
         <v>599</v>
       </c>
-      <c r="R43" s="30">
+      <c r="R43" s="27">
         <v>124</v>
       </c>
       <c r="S43" s="12" t="s">
@@ -10343,20 +10346,743 @@
       <c r="P44" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="Q44" s="30" t="s">
+      <c r="Q44" s="27" t="s">
         <v>600</v>
       </c>
-      <c r="R44" s="30">
+      <c r="R44" s="27">
         <v>125</v>
       </c>
       <c r="S44" s="12" t="s">
         <v>342</v>
       </c>
     </row>
+    <row r="46" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+    </row>
+    <row r="47" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+    </row>
+    <row r="48" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B91" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B98" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B103" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="C105" s="25" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" s="25" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B108" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B111" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="K1:S1"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10368,8 +11094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FE7B3D-F440-4C3C-B20E-E51FED9BBC9B}">
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView topLeftCell="F22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37:S38"/>
+    <sheetView topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36:E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10390,28 +11116,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="K1" s="24" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="K1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="26"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="33"/>
     </row>
     <row r="2" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -10551,7 +11277,7 @@
       <c r="H4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="24" t="s">
         <v>404</v>
       </c>
       <c r="K4" s="5" t="s">
@@ -12135,17 +12861,17 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
       <c r="K33" s="5" t="s">
         <v>25</v>
       </c>
@@ -12175,19 +12901,19 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23" t="s">
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
       <c r="K34" s="5" t="s">
         <v>41</v>
       </c>
@@ -12450,11 +13176,11 @@
       <c r="I39" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="K39" s="23" t="s">
+      <c r="K39" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
     </row>
     <row r="40" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
@@ -13483,28 +14209,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="K1" s="24" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="K1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="26"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="33"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -15222,17 +15948,17 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
       <c r="K33" s="3" t="s">
         <v>25</v>
       </c>
@@ -15262,19 +15988,19 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23" t="s">
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
       <c r="K34" s="3" t="s">
         <v>41</v>
       </c>
@@ -15510,11 +16236,11 @@
       <c r="I39" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="K39" s="23" t="s">
+      <c r="K39" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>

--- a/内部编号列表/[decomp]Perfect Floral Blessing.xlsx
+++ b/内部编号列表/[decomp]Perfect Floral Blessing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Administrator\Documents\GitHub\PvZHB-CheatTables\内部编号列表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\PvZHB-CheatTables\内部编号列表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE6EEB5-DCB8-4393-AD49-07AA11F313B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E75893-DF7B-416E-816C-5FB2E6F9CA76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2779" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2964" uniqueCount="654">
   <si>
     <r>
       <rPr>
@@ -7422,7 +7422,626 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>最终防线</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>破罐者</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一路向左</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第三个罐子</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连锁反应</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的意思是金属</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>胆怯的制陶工</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变戏法</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>另一个连锁反应</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>罐子王牌</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操纵荆棘</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>躲避盾牌</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空中打击</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>南瓜冰川</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>辛辣的战争</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>花瓶之星</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最终防线</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>彩虹碰撞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晚餐是凉菜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陶器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这是陶艺种子</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无尽的试炼</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我是僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我也是僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你能铲了它么？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完全傻了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>死亡飞艇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我烂了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三连击</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你所有的大脑都是属于我的</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冻结和爆炸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坚果保龄球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>艺术锦标赛</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蘑菇狂热</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>禅境花园</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来自远方</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间很重要？运气很重要！</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大植物小僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我是僵尸无尽版</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>追加销售</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智慧树</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>介绍</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图鉴编号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>植物</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>漂浮的幼苗</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>深緑に隠された断崖</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PvZ2 Ultimate Battle in PvZ1 style</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ヴワル魔法図書館</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>あきやまうに</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>いざ、倒れ逝くその時まで(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remix Ver. 2)</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -7430,7 +8049,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7481,6 +8100,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -7668,12 +8308,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7713,9 +8347,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7728,10 +8359,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7744,6 +8378,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8027,3062 +8667,3568 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADA7323-16BA-4F04-8437-A578D8AD6A59}">
-  <dimension ref="A1:S111"/>
+  <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="12.125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="15.25" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="15.125" style="2" customWidth="1"/>
-    <col min="10" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="23.875" style="2" customWidth="1"/>
-    <col min="14" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="22.125" style="2" customWidth="1"/>
-    <col min="17" max="18" width="9" style="2"/>
-    <col min="19" max="19" width="24.25" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="9" style="23"/>
+    <col min="3" max="3" width="15.75" style="23" customWidth="1"/>
+    <col min="4" max="5" width="9" style="23"/>
+    <col min="6" max="6" width="15.25" style="23" customWidth="1"/>
+    <col min="7" max="8" width="9" style="23"/>
+    <col min="9" max="9" width="15.125" style="23" customWidth="1"/>
+    <col min="10" max="12" width="9" style="23"/>
+    <col min="13" max="13" width="36.5" style="23" customWidth="1"/>
+    <col min="14" max="15" width="9" style="23"/>
+    <col min="16" max="16" width="22.125" style="23" customWidth="1"/>
+    <col min="17" max="18" width="9" style="23"/>
+    <col min="19" max="19" width="24.25" style="23" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="K1" s="29" t="s">
         <v>448</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="33"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="31"/>
     </row>
     <row r="2" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="26" t="s">
         <v>449</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="26" t="s">
         <v>449</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="26" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="26" t="s">
         <v>453</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="S3" s="14" t="s">
-        <v>305</v>
+      <c r="S3" s="12" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="S4" s="14" t="s">
-        <v>313</v>
+      <c r="S4" s="12" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="19" t="s">
         <v>459</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="S5" s="14" t="s">
-        <v>321</v>
+      <c r="S5" s="12" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="S6" s="14" t="s">
-        <v>325</v>
+      <c r="S6" s="12" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="Q7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="R7" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="S7" s="14" t="s">
-        <v>330</v>
+      <c r="S7" s="12" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="Q8" s="8" t="s">
+      <c r="Q8" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="S8" s="14" t="s">
-        <v>336</v>
+      <c r="S8" s="12" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R9" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="S9" s="14" t="s">
-        <v>340</v>
+      <c r="S9" s="12" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="19" t="s">
         <v>478</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="Q10" s="8" t="s">
+      <c r="Q10" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="R10" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="S10" s="14" t="s">
-        <v>344</v>
+      <c r="S10" s="12" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="R11" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="S11" s="14" t="s">
-        <v>347</v>
+      <c r="S11" s="12" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N12" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="Q12" s="8" t="s">
+      <c r="Q12" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="R12" s="8" t="s">
+      <c r="R12" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="S12" s="14" t="s">
-        <v>21</v>
+      <c r="S12" s="12" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="19" t="s">
         <v>487</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="N13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="O13" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="Q13" s="8" t="s">
+      <c r="Q13" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="R13" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="S13" s="14" t="s">
-        <v>37</v>
+      <c r="S13" s="12" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="23">
         <v>57</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N14" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="O14" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="Q14" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="R14" s="8" t="s">
+      <c r="R14" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="S14" s="14" t="s">
-        <v>53</v>
+      <c r="S14" s="12" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="19" t="s">
         <v>494</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="N15" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="O15" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="P15" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="Q15" s="8" t="s">
+      <c r="Q15" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="R15" s="8" t="s">
+      <c r="R15" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="S15" s="14" t="s">
-        <v>69</v>
+      <c r="S15" s="12" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>496</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="N16" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="O16" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="Q16" s="8" t="s">
+      <c r="Q16" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="R16" s="8" t="s">
+      <c r="R16" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="S16" s="14" t="s">
-        <v>85</v>
+      <c r="S16" s="12" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>499</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="18" t="s">
         <v>501</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="M17" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="N17" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="P17" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="Q17" s="8" t="s">
+      <c r="Q17" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="R17" s="8" t="s">
+      <c r="R17" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S17" s="14" t="s">
-        <v>101</v>
+      <c r="S17" s="12" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="18" t="s">
         <v>505</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="N18" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="O18" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="P18" s="28" t="s">
-        <v>606</v>
-      </c>
-      <c r="Q18" s="8" t="s">
+      <c r="P18" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q18" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="R18" s="8" t="s">
+      <c r="R18" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="S18" s="14" t="s">
+      <c r="S18" s="12" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="L19" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q19" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="R19" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q20" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="R20" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="O21" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q21" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="R21" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="O22" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q22" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="R22" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="S22" s="12" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="L23" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="N23" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="O23" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q23" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="R23" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="K24" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="L24" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O24" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q24" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="R24" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="K25" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="L25" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="O25" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q25" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="R25" s="24">
+        <v>106</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="K26" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="L26" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="N26" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="O26" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q26" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="R26" s="24">
+        <v>107</v>
+      </c>
+      <c r="S26" s="12" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" s="24">
+        <v>100</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="K27" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="L27" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="N27" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="O27" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q27" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="R27" s="24">
+        <v>108</v>
+      </c>
+      <c r="S27" s="12" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="G28" s="23">
+        <v>65</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="K28" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="L28" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="N28" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="O28" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q28" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="R28" s="24">
+        <v>109</v>
+      </c>
+      <c r="S28" s="12" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="K29" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="L29" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="N29" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="O29" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q29" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="R29" s="24">
+        <v>110</v>
+      </c>
+      <c r="S29" s="12" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="L30" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="N30" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="O30" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="P30" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q30" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="R30" s="24">
+        <v>111</v>
+      </c>
+      <c r="S30" s="12" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="L31" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="N31" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="O31" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q31" s="24">
+        <v>70</v>
+      </c>
+      <c r="R31" s="24">
+        <v>112</v>
+      </c>
+      <c r="S31" s="12" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="N32" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="O32" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="P32" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q32" s="24">
+        <v>71</v>
+      </c>
+      <c r="R32" s="24">
         <v>113</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+      <c r="S32" s="12" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="H33" s="24">
+        <v>106</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="N33" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="O33" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q33" s="24">
+        <v>72</v>
+      </c>
+      <c r="R33" s="24">
+        <v>114</v>
+      </c>
+      <c r="S33" s="12" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="H34" s="24">
+        <v>107</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L34" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="N34" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="O34" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="P34" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q34" s="24">
+        <v>73</v>
+      </c>
+      <c r="R34" s="24">
+        <v>115</v>
+      </c>
+      <c r="S34" s="12" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="H35" s="24">
+        <v>108</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="N35" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="O35" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="P35" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q35" s="24">
+        <v>74</v>
+      </c>
+      <c r="R35" s="24">
+        <v>116</v>
+      </c>
+      <c r="S35" s="12" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="H36" s="24">
+        <v>109</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="K36" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="L36" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="N36" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="O36" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="P36" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q36" s="24">
+        <v>75</v>
+      </c>
+      <c r="R36" s="24">
+        <v>117</v>
+      </c>
+      <c r="S36" s="12" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="H37" s="24">
+        <v>110</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="K37" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="L37" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="N37" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="O37" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="P37" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q37" s="24">
+        <v>76</v>
+      </c>
+      <c r="R37" s="24">
+        <v>118</v>
+      </c>
+      <c r="S37" s="12" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="H38" s="24">
+        <v>111</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="K38" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="N38" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="O38" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="P38" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q38" s="24">
+        <v>77</v>
+      </c>
+      <c r="R38" s="24">
+        <v>119</v>
+      </c>
+      <c r="S38" s="12" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="K39" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="N39" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="O39" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="P39" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q39" s="24">
+        <v>78</v>
+      </c>
+      <c r="R39" s="24">
+        <v>120</v>
+      </c>
+      <c r="S39" s="12" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="K40" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="L40" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="N40" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="O40" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="P40" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="Q40" s="24">
+        <v>79</v>
+      </c>
+      <c r="R40" s="24">
+        <v>121</v>
+      </c>
+      <c r="S40" s="12" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K41" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="L41" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="N41" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="O41" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="P41" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q41" s="24" t="s">
+        <v>597</v>
+      </c>
+      <c r="R41" s="24">
+        <v>122</v>
+      </c>
+      <c r="S41" s="12" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K42" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="L42" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="N42" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="O42" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="P42" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q42" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="R42" s="24">
+        <v>123</v>
+      </c>
+      <c r="S42" s="12" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K43" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="L43" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="N43" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="O43" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="P43" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q43" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="R43" s="24">
+        <v>124</v>
+      </c>
+      <c r="S43" s="10" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K44" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="N44" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O44" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="P44" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q44" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="R44" s="24">
+        <v>125</v>
+      </c>
+      <c r="S44" s="10" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="28" t="s">
+        <v>646</v>
+      </c>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="K46" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+    </row>
+    <row r="47" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="28" t="s">
+        <v>647</v>
+      </c>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28" t="s">
+        <v>648</v>
+      </c>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="K47" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="L47" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="M47" s="26" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="K48" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M48" s="26" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="K49" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L49" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="M49" s="26" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="K50" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="L50" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="M50" s="26" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="G51" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="K51" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L51" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M51" s="26" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="K52" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="L52" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="M52" s="26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H53" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="K53" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="L53" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="M53" s="26" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="H54" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="K54" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="L54" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="M54" s="26" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="K55" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="L55" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="M55" s="26" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H56" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="I56" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="K56" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="L56" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="M56" s="26" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="H57" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="K57" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="L57" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="M57" s="26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="H58" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="I58" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="K58" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="L58" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="M58" s="26" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="G59" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="H59" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="I59" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="K59" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="L59" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="M59" s="26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="G60" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="H60" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="K60" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="L60" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="M60" s="26" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="G61" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H61" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="I61" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="K61" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="L61" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="M61" s="26" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="G62" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="H62" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="I62" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="K62" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="L62" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="M62" s="26" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="G63" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="H63" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="I63" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="K63" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="L63" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="M63" s="32" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C64" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D64" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="G64" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="H64" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="I64" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="K64" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="L64" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="M64" s="26" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="G65" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="H65" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="I65" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="K65" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="L65" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="M65" s="33" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="G66" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="H66" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="I66" s="18" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="G67" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="H67" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="I67" s="18" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="G68" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H68" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="I68" s="18" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="D69" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E69" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F69" s="19" t="s">
         <v>508</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>509</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="L19" s="8" t="s">
+      <c r="G69" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="H69" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I69" s="18" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="M19" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="N19" s="8" t="s">
+      <c r="B70" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="F70" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="G70" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="H70" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="I70" s="18" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="F71" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="G71" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="H71" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="18" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="G72" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="H72" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I72" s="18" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="G73" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="H73" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I73" s="18" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="D74" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q19" s="8" t="s">
+      <c r="E74" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="G74" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="H74" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I74" s="18" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="G75" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="H75" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I75" s="18" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="G76" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="H76" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="I76" s="18" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="G77" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" s="18" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="G78" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H78" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I78" s="18" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="G79" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H79" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I79" s="18" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E80" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="R19" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="S19" s="14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>511</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="F80" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="G80" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H80" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="I80" s="18" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="81" spans="4:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D81" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="G81" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H81" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I81" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="82" spans="4:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G82" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H82" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="I82" s="18" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="83" spans="4:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G83" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" s="18" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="84" spans="4:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G84" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H84" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I84" s="18" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="85" spans="4:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G85" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H85" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>405</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P20" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q20" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="R20" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="S20" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>513</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P21" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="Q21" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="R21" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="S21" s="14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>517</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="P22" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q22" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="R22" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="S22" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>401</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="P23" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q23" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="R23" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="S23" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="P24" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q24" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="R24" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="S24" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>526</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="P25" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q25" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="R25" s="27">
-        <v>106</v>
-      </c>
-      <c r="S25" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>528</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="P26" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q26" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="R26" s="27">
-        <v>107</v>
-      </c>
-      <c r="S26" s="14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>531</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>532</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H27" s="27">
-        <v>100</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="P27" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q27" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="R27" s="27">
-        <v>108</v>
-      </c>
-      <c r="S27" s="14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>534</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="G28" s="26">
-        <v>65</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="P28" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q28" s="27" t="s">
-        <v>431</v>
-      </c>
-      <c r="R28" s="27">
-        <v>109</v>
-      </c>
-      <c r="S28" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>536</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>537</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="P29" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="Q29" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="R29" s="27">
-        <v>110</v>
-      </c>
-      <c r="S29" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>540</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="O30" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="P30" s="29" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q30" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="R30" s="27">
-        <v>111</v>
-      </c>
-      <c r="S30" s="14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>542</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>543</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>421</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P31" s="29" t="s">
-        <v>586</v>
-      </c>
-      <c r="Q31" s="27">
-        <v>70</v>
-      </c>
-      <c r="R31" s="27">
-        <v>112</v>
-      </c>
-      <c r="S31" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>545</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M32" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="O32" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="P32" s="29" t="s">
-        <v>587</v>
-      </c>
-      <c r="Q32" s="27">
-        <v>71</v>
-      </c>
-      <c r="R32" s="27">
-        <v>113</v>
-      </c>
-      <c r="S32" s="14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>549</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="H33" s="27">
-        <v>106</v>
-      </c>
-      <c r="I33" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="P33" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q33" s="27">
-        <v>72</v>
-      </c>
-      <c r="R33" s="27">
-        <v>114</v>
-      </c>
-      <c r="S33" s="14" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>551</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>552</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="H34" s="27">
-        <v>107</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="N34" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="O34" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P34" s="12" t="s">
-        <v>588</v>
-      </c>
-      <c r="Q34" s="27">
-        <v>73</v>
-      </c>
-      <c r="R34" s="27">
-        <v>115</v>
-      </c>
-      <c r="S34" s="14" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="H35" s="27">
-        <v>108</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="O35" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="P35" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q35" s="27">
-        <v>74</v>
-      </c>
-      <c r="R35" s="27">
-        <v>116</v>
-      </c>
-      <c r="S35" s="14" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>557</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>558</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>431</v>
-      </c>
-      <c r="H36" s="27">
-        <v>109</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="O36" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="P36" s="12" t="s">
-        <v>590</v>
-      </c>
-      <c r="Q36" s="27">
-        <v>75</v>
-      </c>
-      <c r="R36" s="27">
-        <v>117</v>
-      </c>
-      <c r="S36" s="14" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>560</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>561</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="H37" s="27">
-        <v>110</v>
-      </c>
-      <c r="I37" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="P37" s="12" t="s">
-        <v>591</v>
-      </c>
-      <c r="Q37" s="27">
-        <v>76</v>
-      </c>
-      <c r="R37" s="27">
-        <v>118</v>
-      </c>
-      <c r="S37" s="14" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>564</v>
-      </c>
-      <c r="G38" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="H38" s="27">
-        <v>111</v>
-      </c>
-      <c r="I38" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M38" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="P38" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q38" s="27">
-        <v>77</v>
-      </c>
-      <c r="R38" s="27">
-        <v>119</v>
-      </c>
-      <c r="S38" s="14" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>566</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>567</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M39" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="P39" s="12" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q39" s="27">
-        <v>78</v>
-      </c>
-      <c r="R39" s="27">
-        <v>120</v>
-      </c>
-      <c r="S39" s="14" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>569</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M40" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="O40" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="P40" s="12" t="s">
-        <v>593</v>
-      </c>
-      <c r="Q40" s="27">
-        <v>79</v>
-      </c>
-      <c r="R40" s="27">
-        <v>121</v>
-      </c>
-      <c r="S40" s="14" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K41" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M41" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="P41" s="12" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q41" s="27" t="s">
-        <v>597</v>
-      </c>
-      <c r="R41" s="27">
-        <v>122</v>
-      </c>
-      <c r="S41" s="14" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K42" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="M42" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="O42" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="P42" s="12" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q42" s="27" t="s">
-        <v>598</v>
-      </c>
-      <c r="R42" s="27">
-        <v>123</v>
-      </c>
-      <c r="S42" s="14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K43" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="M43" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="O43" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="P43" s="12" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q43" s="27" t="s">
-        <v>599</v>
-      </c>
-      <c r="R43" s="27">
-        <v>124</v>
-      </c>
-      <c r="S43" s="12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K44" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L44" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="M44" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="O44" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="P44" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q44" s="27" t="s">
-        <v>600</v>
-      </c>
-      <c r="R44" s="27">
-        <v>125</v>
-      </c>
-      <c r="S44" s="12" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-    </row>
-    <row r="47" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-    </row>
-    <row r="48" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="B58" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="B70" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="B71" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="B72" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="B73" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="B74" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="B75" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B78" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B80" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B81" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B82" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B83" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B84" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B85" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B86" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B87" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B88" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B89" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C89" s="21" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="B90" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C90" s="21" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="B91" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C91" s="21" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="B92" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C92" s="21" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B93" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="B94" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="C94" s="21" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="B95" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C95" s="21" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B96" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C96" s="21" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B97" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C97" s="21" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B98" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B99" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C99" s="21" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B100" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C100" s="21" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B101" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C101" s="21" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B102" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="C102" s="21" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B103" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="C103" s="25" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B104" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="C104" s="25" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B105" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="C105" s="25" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B106" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C106" s="25" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B107" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C107" s="25" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B108" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B109" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B110" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B111" s="23" t="s">
-        <v>93</v>
+      <c r="I85" s="24" t="s">
+        <v>649</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="A46:I46"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K46:M46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11094,8 +12240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FE7B3D-F440-4C3C-B20E-E51FED9BBC9B}">
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36:E67"/>
+    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39:M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11116,28 +12262,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="K1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="33"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="31"/>
     </row>
     <row r="2" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -11194,7 +12340,7 @@
       <c r="S2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="10"/>
+      <c r="U2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -11203,7 +12349,7 @@
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -11212,7 +12358,7 @@
       <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -11221,7 +12367,7 @@
       <c r="H3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="14" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="5" t="s">
@@ -11239,7 +12385,7 @@
       <c r="O3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="9" t="s">
         <v>18</v>
       </c>
       <c r="Q3" s="5" t="s">
@@ -11248,7 +12394,7 @@
       <c r="R3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="12" t="s">
         <v>340</v>
       </c>
     </row>
@@ -11259,7 +12405,7 @@
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -11268,7 +12414,7 @@
       <c r="E4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -11277,7 +12423,7 @@
       <c r="H4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="21" t="s">
         <v>404</v>
       </c>
       <c r="K4" s="5" t="s">
@@ -11286,7 +12432,7 @@
       <c r="L4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="8" t="s">
         <v>31</v>
       </c>
       <c r="N4" s="5" t="s">
@@ -11295,7 +12441,7 @@
       <c r="O4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="9" t="s">
         <v>34</v>
       </c>
       <c r="Q4" s="5" t="s">
@@ -11304,10 +12450,10 @@
       <c r="R4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="U4" s="11"/>
+      <c r="U4" s="9"/>
     </row>
     <row r="5" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
@@ -11316,7 +12462,7 @@
       <c r="B5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -11325,7 +12471,7 @@
       <c r="E5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="14" t="s">
         <v>43</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -11334,7 +12480,7 @@
       <c r="H5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="K5" s="5" t="s">
@@ -11343,7 +12489,7 @@
       <c r="L5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="8" t="s">
         <v>47</v>
       </c>
       <c r="N5" s="5" t="s">
@@ -11352,7 +12498,7 @@
       <c r="O5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="9" t="s">
         <v>50</v>
       </c>
       <c r="Q5" s="5" t="s">
@@ -11361,7 +12507,7 @@
       <c r="R5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="12" t="s">
         <v>347</v>
       </c>
     </row>
@@ -11372,7 +12518,7 @@
       <c r="B6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>56</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -11381,7 +12527,7 @@
       <c r="E6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="14" t="s">
         <v>59</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -11390,7 +12536,7 @@
       <c r="H6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="14" t="s">
         <v>62</v>
       </c>
       <c r="K6" s="5" t="s">
@@ -11399,7 +12545,7 @@
       <c r="L6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="8" t="s">
         <v>63</v>
       </c>
       <c r="N6" s="5" t="s">
@@ -11408,7 +12554,7 @@
       <c r="O6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="9" t="s">
         <v>66</v>
       </c>
       <c r="Q6" s="5" t="s">
@@ -11417,10 +12563,10 @@
       <c r="R6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="12"/>
+      <c r="U6" s="10"/>
     </row>
     <row r="7" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
@@ -11429,7 +12575,7 @@
       <c r="B7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>72</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -11438,7 +12584,7 @@
       <c r="E7" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="14" t="s">
         <v>75</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -11447,7 +12593,7 @@
       <c r="H7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="14" t="s">
         <v>78</v>
       </c>
       <c r="K7" s="5" t="s">
@@ -11456,7 +12602,7 @@
       <c r="L7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="8" t="s">
         <v>79</v>
       </c>
       <c r="N7" s="5" t="s">
@@ -11465,7 +12611,7 @@
       <c r="O7" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="9" t="s">
         <v>82</v>
       </c>
       <c r="Q7" s="5" t="s">
@@ -11474,7 +12620,7 @@
       <c r="R7" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="S7" s="12" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11485,7 +12631,7 @@
       <c r="B8" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -11494,7 +12640,7 @@
       <c r="E8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="14" t="s">
         <v>91</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -11503,7 +12649,7 @@
       <c r="H8" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="19" t="s">
         <v>94</v>
       </c>
       <c r="K8" s="5" t="s">
@@ -11512,7 +12658,7 @@
       <c r="L8" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="8" t="s">
         <v>95</v>
       </c>
       <c r="N8" s="5" t="s">
@@ -11521,7 +12667,7 @@
       <c r="O8" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="9" t="s">
         <v>98</v>
       </c>
       <c r="Q8" s="5" t="s">
@@ -11530,10 +12676,10 @@
       <c r="R8" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="S8" s="14" t="s">
+      <c r="S8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="13"/>
+      <c r="U8" s="11"/>
     </row>
     <row r="9" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
@@ -11542,7 +12688,7 @@
       <c r="B9" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -11551,7 +12697,7 @@
       <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="14" t="s">
         <v>105</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -11569,7 +12715,7 @@
       <c r="L9" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="8" t="s">
         <v>108</v>
       </c>
       <c r="N9" s="5" t="s">
@@ -11578,7 +12724,7 @@
       <c r="O9" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="9" t="s">
         <v>110</v>
       </c>
       <c r="Q9" s="5" t="s">
@@ -11587,7 +12733,7 @@
       <c r="R9" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="S9" s="14" t="s">
+      <c r="S9" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -11598,7 +12744,7 @@
       <c r="B10" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>116</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -11607,7 +12753,7 @@
       <c r="E10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="14" t="s">
         <v>117</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -11616,7 +12762,7 @@
       <c r="H10" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="16" t="s">
         <v>119</v>
       </c>
       <c r="K10" s="5" t="s">
@@ -11625,7 +12771,7 @@
       <c r="L10" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="8" t="s">
         <v>120</v>
       </c>
       <c r="N10" s="5" t="s">
@@ -11634,7 +12780,7 @@
       <c r="O10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="9" t="s">
         <v>123</v>
       </c>
       <c r="Q10" s="5" t="s">
@@ -11643,10 +12789,10 @@
       <c r="R10" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="S10" s="14" t="s">
+      <c r="S10" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="U10" s="14"/>
+      <c r="U10" s="12"/>
     </row>
     <row r="11" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
@@ -11655,7 +12801,7 @@
       <c r="B11" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -11664,7 +12810,7 @@
       <c r="E11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="14" t="s">
         <v>130</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -11673,7 +12819,7 @@
       <c r="H11" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="16" t="s">
         <v>132</v>
       </c>
       <c r="K11" s="5" t="s">
@@ -11682,7 +12828,7 @@
       <c r="L11" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="8" t="s">
         <v>133</v>
       </c>
       <c r="N11" s="5" t="s">
@@ -11691,7 +12837,7 @@
       <c r="O11" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="9" t="s">
         <v>136</v>
       </c>
       <c r="Q11" s="5" t="s">
@@ -11700,7 +12846,7 @@
       <c r="R11" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="S11" s="14" t="s">
+      <c r="S11" s="12" t="s">
         <v>101</v>
       </c>
     </row>
@@ -11711,7 +12857,7 @@
       <c r="B12" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>142</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -11720,7 +12866,7 @@
       <c r="E12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="14" t="s">
         <v>143</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -11729,7 +12875,7 @@
       <c r="H12" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="16" t="s">
         <v>145</v>
       </c>
       <c r="K12" s="5" t="s">
@@ -11738,7 +12884,7 @@
       <c r="L12" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="8" t="s">
         <v>146</v>
       </c>
       <c r="N12" s="5" t="s">
@@ -11747,7 +12893,7 @@
       <c r="O12" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="9" t="s">
         <v>149</v>
       </c>
       <c r="Q12" s="5" t="s">
@@ -11756,7 +12902,7 @@
       <c r="R12" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="S12" s="14" t="s">
+      <c r="S12" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -11767,7 +12913,7 @@
       <c r="B13" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>155</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -11776,7 +12922,7 @@
       <c r="E13" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="14" t="s">
         <v>156</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -11785,7 +12931,7 @@
       <c r="H13" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="16" t="s">
         <v>158</v>
       </c>
       <c r="K13" s="5" t="s">
@@ -11794,7 +12940,7 @@
       <c r="L13" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="8" t="s">
         <v>159</v>
       </c>
       <c r="N13" s="5" t="s">
@@ -11803,7 +12949,7 @@
       <c r="O13" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="9" t="s">
         <v>390</v>
       </c>
       <c r="Q13" s="5" t="s">
@@ -11812,10 +12958,10 @@
       <c r="R13" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="S13" s="14" t="s">
+      <c r="S13" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="U13" s="15"/>
+      <c r="U13" s="13"/>
     </row>
     <row r="14" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
@@ -11824,7 +12970,7 @@
       <c r="B14" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>168</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -11833,7 +12979,7 @@
       <c r="E14" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="19" t="s">
         <v>169</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -11842,7 +12988,7 @@
       <c r="H14" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="17" t="s">
         <v>171</v>
       </c>
       <c r="K14" s="5" t="s">
@@ -11851,7 +12997,7 @@
       <c r="L14" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="8" t="s">
         <v>172</v>
       </c>
       <c r="N14" s="5" t="s">
@@ -11860,7 +13006,7 @@
       <c r="O14" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="9" t="s">
         <v>391</v>
       </c>
       <c r="Q14" s="5" t="s">
@@ -11869,7 +13015,7 @@
       <c r="R14" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="S14" s="14" t="s">
+      <c r="S14" s="12" t="s">
         <v>139</v>
       </c>
     </row>
@@ -11880,7 +13026,7 @@
       <c r="B15" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="14" t="s">
         <v>181</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -11889,7 +13035,7 @@
       <c r="E15" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="19" t="s">
         <v>182</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -11898,7 +13044,7 @@
       <c r="H15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="17" t="s">
         <v>183</v>
       </c>
       <c r="K15" s="5" t="s">
@@ -11907,7 +13053,7 @@
       <c r="L15" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="8" t="s">
         <v>184</v>
       </c>
       <c r="N15" s="5" t="s">
@@ -11916,7 +13062,7 @@
       <c r="O15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="P15" s="9" t="s">
         <v>392</v>
       </c>
       <c r="Q15" s="5" t="s">
@@ -11925,10 +13071,10 @@
       <c r="R15" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="S15" s="14" t="s">
+      <c r="S15" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="U15" s="16"/>
+      <c r="U15" s="14"/>
     </row>
     <row r="16" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
@@ -11937,7 +13083,7 @@
       <c r="B16" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>191</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -11946,7 +13092,7 @@
       <c r="E16" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="19" t="s">
         <v>192</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -11955,7 +13101,7 @@
       <c r="H16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="18" t="s">
         <v>193</v>
       </c>
       <c r="K16" s="5" t="s">
@@ -11964,7 +13110,7 @@
       <c r="L16" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="8" t="s">
         <v>194</v>
       </c>
       <c r="N16" s="5" t="s">
@@ -11973,7 +13119,7 @@
       <c r="O16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="9" t="s">
         <v>162</v>
       </c>
       <c r="Q16" s="5" t="s">
@@ -11982,7 +13128,7 @@
       <c r="R16" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="S16" s="14" t="s">
+      <c r="S16" s="12" t="s">
         <v>165</v>
       </c>
     </row>
@@ -11993,7 +13139,7 @@
       <c r="B17" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>201</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -12002,7 +13148,7 @@
       <c r="E17" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="19" t="s">
         <v>202</v>
       </c>
       <c r="G17" s="5" t="s">
@@ -12011,7 +13157,7 @@
       <c r="H17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="18" t="s">
         <v>203</v>
       </c>
       <c r="K17" s="5" t="s">
@@ -12020,7 +13166,7 @@
       <c r="L17" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="M17" s="8" t="s">
         <v>204</v>
       </c>
       <c r="N17" s="5" t="s">
@@ -12029,7 +13175,7 @@
       <c r="O17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P17" s="12" t="s">
+      <c r="P17" s="10" t="s">
         <v>175</v>
       </c>
       <c r="Q17" s="5" t="s">
@@ -12038,10 +13184,10 @@
       <c r="R17" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="S17" s="14" t="s">
+      <c r="S17" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="U17" s="17"/>
+      <c r="U17" s="15"/>
     </row>
     <row r="18" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
@@ -12050,7 +13196,7 @@
       <c r="B18" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>211</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -12059,7 +13205,7 @@
       <c r="E18" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="19" t="s">
         <v>212</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -12068,7 +13214,7 @@
       <c r="H18" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="18" t="s">
         <v>213</v>
       </c>
       <c r="K18" s="5" t="s">
@@ -12077,7 +13223,7 @@
       <c r="L18" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="8" t="s">
         <v>214</v>
       </c>
       <c r="N18" s="5" t="s">
@@ -12086,7 +13232,7 @@
       <c r="O18" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="P18" s="12" t="s">
+      <c r="P18" s="10" t="s">
         <v>185</v>
       </c>
       <c r="Q18" s="5" t="s">
@@ -12095,7 +13241,7 @@
       <c r="R18" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="S18" s="14" t="s">
+      <c r="S18" s="12" t="s">
         <v>188</v>
       </c>
     </row>
@@ -12106,7 +13252,7 @@
       <c r="B19" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="14" t="s">
         <v>220</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -12115,7 +13261,7 @@
       <c r="E19" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="19" t="s">
         <v>222</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -12124,7 +13270,7 @@
       <c r="H19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="18" t="s">
         <v>223</v>
       </c>
       <c r="K19" s="5" t="s">
@@ -12133,7 +13279,7 @@
       <c r="L19" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="8" t="s">
         <v>224</v>
       </c>
       <c r="N19" s="5" t="s">
@@ -12142,7 +13288,7 @@
       <c r="O19" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="P19" s="12" t="s">
+      <c r="P19" s="10" t="s">
         <v>195</v>
       </c>
       <c r="Q19" s="5" t="s">
@@ -12151,10 +13297,10 @@
       <c r="R19" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="S19" s="14" t="s">
+      <c r="S19" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="U19" s="18"/>
+      <c r="U19" s="16"/>
     </row>
     <row r="20" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
@@ -12163,7 +13309,7 @@
       <c r="B20" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="14" t="s">
         <v>230</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -12172,7 +13318,7 @@
       <c r="E20" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="19" t="s">
         <v>231</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -12181,7 +13327,7 @@
       <c r="H20" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="18" t="s">
         <v>232</v>
       </c>
       <c r="K20" s="5" t="s">
@@ -12190,7 +13336,7 @@
       <c r="L20" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="8" t="s">
         <v>233</v>
       </c>
       <c r="N20" s="5" t="s">
@@ -12199,7 +13345,7 @@
       <c r="O20" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="P20" s="12" t="s">
+      <c r="P20" s="10" t="s">
         <v>205</v>
       </c>
       <c r="Q20" s="5" t="s">
@@ -12208,7 +13354,7 @@
       <c r="R20" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="S20" s="14" t="s">
+      <c r="S20" s="12" t="s">
         <v>208</v>
       </c>
     </row>
@@ -12219,7 +13365,7 @@
       <c r="B21" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="14" t="s">
         <v>237</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -12228,7 +13374,7 @@
       <c r="E21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="19" t="s">
         <v>238</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -12237,7 +13383,7 @@
       <c r="H21" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="18" t="s">
         <v>239</v>
       </c>
       <c r="K21" s="5" t="s">
@@ -12246,7 +13392,7 @@
       <c r="L21" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="8" t="s">
         <v>240</v>
       </c>
       <c r="N21" s="5" t="s">
@@ -12255,7 +13401,7 @@
       <c r="O21" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="P21" s="12" t="s">
+      <c r="P21" s="10" t="s">
         <v>215</v>
       </c>
       <c r="Q21" s="5" t="s">
@@ -12264,10 +13410,10 @@
       <c r="R21" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="S21" s="14" t="s">
+      <c r="S21" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="U21" s="19"/>
+      <c r="U21" s="17"/>
     </row>
     <row r="22" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
@@ -12276,7 +13422,7 @@
       <c r="B22" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="14" t="s">
         <v>245</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -12285,7 +13431,7 @@
       <c r="E22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="19" t="s">
         <v>246</v>
       </c>
       <c r="G22" s="5" t="s">
@@ -12294,7 +13440,7 @@
       <c r="H22" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="18" t="s">
         <v>247</v>
       </c>
       <c r="K22" s="5" t="s">
@@ -12303,7 +13449,7 @@
       <c r="L22" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="8" t="s">
         <v>248</v>
       </c>
       <c r="N22" s="5" t="s">
@@ -12312,7 +13458,7 @@
       <c r="O22" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="P22" s="12" t="s">
+      <c r="P22" s="10" t="s">
         <v>225</v>
       </c>
       <c r="Q22" s="5" t="s">
@@ -12321,7 +13467,7 @@
       <c r="R22" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="S22" s="14" t="s">
+      <c r="S22" s="12" t="s">
         <v>228</v>
       </c>
     </row>
@@ -12332,7 +13478,7 @@
       <c r="B23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="14" t="s">
         <v>253</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -12341,7 +13487,7 @@
       <c r="E23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="19" t="s">
         <v>254</v>
       </c>
       <c r="G23" s="5" t="s">
@@ -12350,7 +13496,7 @@
       <c r="H23" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="18" t="s">
         <v>255</v>
       </c>
       <c r="K23" s="5" t="s">
@@ -12359,7 +13505,7 @@
       <c r="L23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="M23" s="10" t="s">
+      <c r="M23" s="8" t="s">
         <v>256</v>
       </c>
       <c r="N23" s="5" t="s">
@@ -12368,7 +13514,7 @@
       <c r="O23" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="P23" s="12" t="s">
+      <c r="P23" s="10" t="s">
         <v>234</v>
       </c>
       <c r="Q23" s="5" t="s">
@@ -12377,10 +13523,10 @@
       <c r="R23" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="S23" s="14" t="s">
+      <c r="S23" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="U23" s="20"/>
+      <c r="U23" s="18"/>
     </row>
     <row r="24" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
@@ -12389,7 +13535,7 @@
       <c r="B24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="14" t="s">
         <v>261</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -12398,7 +13544,7 @@
       <c r="E24" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="19" t="s">
         <v>262</v>
       </c>
       <c r="G24" s="5" t="s">
@@ -12407,7 +13553,7 @@
       <c r="H24" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="18" t="s">
         <v>263</v>
       </c>
       <c r="K24" s="5" t="s">
@@ -12416,7 +13562,7 @@
       <c r="L24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="M24" s="10" t="s">
+      <c r="M24" s="8" t="s">
         <v>264</v>
       </c>
       <c r="N24" s="5" t="s">
@@ -12425,7 +13571,7 @@
       <c r="O24" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="P24" s="13" t="s">
+      <c r="P24" s="11" t="s">
         <v>241</v>
       </c>
       <c r="Q24" s="5" t="s">
@@ -12434,7 +13580,7 @@
       <c r="R24" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="S24" s="14" t="s">
+      <c r="S24" s="12" t="s">
         <v>243</v>
       </c>
     </row>
@@ -12445,7 +13591,7 @@
       <c r="B25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="14" t="s">
         <v>269</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -12454,7 +13600,7 @@
       <c r="E25" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="19" t="s">
         <v>270</v>
       </c>
       <c r="G25" s="5" t="s">
@@ -12463,7 +13609,7 @@
       <c r="H25" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="18" t="s">
         <v>271</v>
       </c>
       <c r="K25" s="5" t="s">
@@ -12472,7 +13618,7 @@
       <c r="L25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="M25" s="10" t="s">
+      <c r="M25" s="8" t="s">
         <v>272</v>
       </c>
       <c r="N25" s="5" t="s">
@@ -12481,7 +13627,7 @@
       <c r="O25" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="P25" s="12" t="s">
+      <c r="P25" s="10" t="s">
         <v>249</v>
       </c>
       <c r="Q25" s="5" t="s">
@@ -12490,10 +13636,10 @@
       <c r="R25" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="S25" s="14" t="s">
+      <c r="S25" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="U25" s="21"/>
+      <c r="U25" s="19"/>
     </row>
     <row r="26" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
@@ -12502,7 +13648,7 @@
       <c r="B26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="14" t="s">
         <v>277</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -12511,7 +13657,7 @@
       <c r="E26" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="19" t="s">
         <v>278</v>
       </c>
       <c r="G26" s="5" t="s">
@@ -12520,7 +13666,7 @@
       <c r="H26" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="I26" s="20" t="s">
+      <c r="I26" s="18" t="s">
         <v>279</v>
       </c>
       <c r="K26" s="5" t="s">
@@ -12529,7 +13675,7 @@
       <c r="L26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M26" s="10" t="s">
+      <c r="M26" s="8" t="s">
         <v>280</v>
       </c>
       <c r="N26" s="5" t="s">
@@ -12538,7 +13684,7 @@
       <c r="O26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P26" s="12" t="s">
+      <c r="P26" s="10" t="s">
         <v>257</v>
       </c>
       <c r="Q26" s="5" t="s">
@@ -12547,7 +13693,7 @@
       <c r="R26" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="S26" s="14" t="s">
+      <c r="S26" s="12" t="s">
         <v>260</v>
       </c>
     </row>
@@ -12558,7 +13704,7 @@
       <c r="B27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="14" t="s">
         <v>285</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -12567,7 +13713,7 @@
       <c r="E27" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="19" t="s">
         <v>286</v>
       </c>
       <c r="G27" s="5" t="s">
@@ -12576,7 +13722,7 @@
       <c r="H27" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="I27" s="20" t="s">
+      <c r="I27" s="18" t="s">
         <v>287</v>
       </c>
       <c r="K27" s="5" t="s">
@@ -12585,7 +13731,7 @@
       <c r="L27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="10" t="s">
+      <c r="M27" s="8" t="s">
         <v>288</v>
       </c>
       <c r="N27" s="5" t="s">
@@ -12594,7 +13740,7 @@
       <c r="O27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P27" s="12" t="s">
+      <c r="P27" s="10" t="s">
         <v>265</v>
       </c>
       <c r="Q27" s="5" t="s">
@@ -12603,7 +13749,7 @@
       <c r="R27" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="S27" s="14" t="s">
+      <c r="S27" s="12" t="s">
         <v>268</v>
       </c>
     </row>
@@ -12614,7 +13760,7 @@
       <c r="B28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="14" t="s">
         <v>293</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -12623,7 +13769,7 @@
       <c r="E28" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="19" t="s">
         <v>294</v>
       </c>
       <c r="G28" s="5" t="s">
@@ -12632,7 +13778,7 @@
       <c r="H28" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="I28" s="20" t="s">
+      <c r="I28" s="18" t="s">
         <v>295</v>
       </c>
       <c r="K28" s="5" t="s">
@@ -12641,7 +13787,7 @@
       <c r="L28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="9" t="s">
         <v>296</v>
       </c>
       <c r="N28" s="5" t="s">
@@ -12650,7 +13796,7 @@
       <c r="O28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="P28" s="12" t="s">
+      <c r="P28" s="10" t="s">
         <v>273</v>
       </c>
       <c r="Q28" s="5" t="s">
@@ -12659,7 +13805,7 @@
       <c r="R28" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="S28" s="14" t="s">
+      <c r="S28" s="12" t="s">
         <v>276</v>
       </c>
     </row>
@@ -12670,7 +13816,7 @@
       <c r="B29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="14" t="s">
         <v>301</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -12679,7 +13825,7 @@
       <c r="E29" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="19" t="s">
         <v>302</v>
       </c>
       <c r="G29" s="5" t="s">
@@ -12688,7 +13834,7 @@
       <c r="H29" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="I29" s="20" t="s">
+      <c r="I29" s="18" t="s">
         <v>303</v>
       </c>
       <c r="K29" s="5" t="s">
@@ -12697,7 +13843,7 @@
       <c r="L29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M29" s="11" t="s">
+      <c r="M29" s="9" t="s">
         <v>304</v>
       </c>
       <c r="N29" s="5" t="s">
@@ -12706,7 +13852,7 @@
       <c r="O29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="P29" s="12" t="s">
+      <c r="P29" s="10" t="s">
         <v>281</v>
       </c>
       <c r="Q29" s="5" t="s">
@@ -12715,7 +13861,7 @@
       <c r="R29" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="S29" s="14" t="s">
+      <c r="S29" s="12" t="s">
         <v>284</v>
       </c>
     </row>
@@ -12726,7 +13872,7 @@
       <c r="B30" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="14" t="s">
         <v>309</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -12735,7 +13881,7 @@
       <c r="E30" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="13" t="s">
         <v>310</v>
       </c>
       <c r="G30" s="5" t="s">
@@ -12744,7 +13890,7 @@
       <c r="H30" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="I30" s="20" t="s">
+      <c r="I30" s="18" t="s">
         <v>311</v>
       </c>
       <c r="K30" s="5" t="s">
@@ -12753,7 +13899,7 @@
       <c r="L30" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="M30" s="11" t="s">
+      <c r="M30" s="9" t="s">
         <v>312</v>
       </c>
       <c r="N30" s="5" t="s">
@@ -12762,7 +13908,7 @@
       <c r="O30" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="P30" s="12" t="s">
+      <c r="P30" s="10" t="s">
         <v>289</v>
       </c>
       <c r="Q30" s="5" t="s">
@@ -12771,7 +13917,7 @@
       <c r="R30" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="S30" s="14" t="s">
+      <c r="S30" s="12" t="s">
         <v>292</v>
       </c>
     </row>
@@ -12782,7 +13928,7 @@
       <c r="B31" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="14" t="s">
         <v>317</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -12791,7 +13937,7 @@
       <c r="E31" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="14" t="s">
         <v>318</v>
       </c>
       <c r="G31" s="5" t="s">
@@ -12800,7 +13946,7 @@
       <c r="H31" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="I31" s="16" t="s">
+      <c r="I31" s="14" t="s">
         <v>319</v>
       </c>
       <c r="K31" s="5" t="s">
@@ -12809,7 +13955,7 @@
       <c r="L31" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M31" s="11" t="s">
+      <c r="M31" s="9" t="s">
         <v>320</v>
       </c>
       <c r="N31" s="5" t="s">
@@ -12818,7 +13964,7 @@
       <c r="O31" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P31" s="13" t="s">
+      <c r="P31" s="11" t="s">
         <v>297</v>
       </c>
       <c r="Q31" s="5" t="s">
@@ -12827,7 +13973,7 @@
       <c r="R31" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="S31" s="14" t="s">
+      <c r="S31" s="12" t="s">
         <v>299</v>
       </c>
     </row>
@@ -12838,7 +13984,7 @@
       <c r="L32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M32" s="11" t="s">
+      <c r="M32" s="9" t="s">
         <v>324</v>
       </c>
       <c r="N32" s="5" t="s">
@@ -12847,7 +13993,7 @@
       <c r="O32" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="P32" s="14" t="s">
+      <c r="P32" s="12" t="s">
         <v>305</v>
       </c>
       <c r="Q32" s="5" t="s">
@@ -12856,29 +14002,29 @@
       <c r="R32" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="S32" s="14" t="s">
+      <c r="S32" s="12" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
       <c r="K33" s="5" t="s">
         <v>25</v>
       </c>
       <c r="L33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M33" s="11" t="s">
+      <c r="M33" s="9" t="s">
         <v>329</v>
       </c>
       <c r="N33" s="5" t="s">
@@ -12887,7 +14033,7 @@
       <c r="O33" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="P33" s="14" t="s">
+      <c r="P33" s="12" t="s">
         <v>313</v>
       </c>
       <c r="Q33" s="5" t="s">
@@ -12896,31 +14042,31 @@
       <c r="R33" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="S33" s="14" t="s">
+      <c r="S33" s="12" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
       <c r="K34" s="5" t="s">
         <v>41</v>
       </c>
       <c r="L34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M34" s="11" t="s">
+      <c r="M34" s="9" t="s">
         <v>335</v>
       </c>
       <c r="N34" s="5" t="s">
@@ -12929,7 +14075,7 @@
       <c r="O34" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="P34" s="14" t="s">
+      <c r="P34" s="12" t="s">
         <v>321</v>
       </c>
       <c r="Q34" s="5" t="s">
@@ -12938,7 +14084,7 @@
       <c r="R34" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="S34" s="14" t="s">
+      <c r="S34" s="12" t="s">
         <v>323</v>
       </c>
     </row>
@@ -12976,7 +14122,7 @@
       <c r="L35" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M35" s="11" t="s">
+      <c r="M35" s="9" t="s">
         <v>339</v>
       </c>
       <c r="N35" s="5" t="s">
@@ -12985,7 +14131,7 @@
       <c r="O35" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="P35" s="14" t="s">
+      <c r="P35" s="12" t="s">
         <v>325</v>
       </c>
       <c r="Q35" s="5" t="s">
@@ -12994,7 +14140,7 @@
       <c r="R35" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="S35" s="14" t="s">
+      <c r="S35" s="12" t="s">
         <v>327</v>
       </c>
     </row>
@@ -13005,7 +14151,7 @@
       <c r="B36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -13014,7 +14160,7 @@
       <c r="E36" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="14" t="s">
         <v>59</v>
       </c>
       <c r="G36" s="5" t="s">
@@ -13023,7 +14169,7 @@
       <c r="H36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="20" t="s">
+      <c r="I36" s="18" t="s">
         <v>193</v>
       </c>
       <c r="K36" s="5" t="s">
@@ -13032,7 +14178,7 @@
       <c r="L36" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="M36" s="11" t="s">
+      <c r="M36" s="9" t="s">
         <v>343</v>
       </c>
       <c r="N36" s="5" t="s">
@@ -13041,7 +14187,7 @@
       <c r="O36" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="P36" s="14" t="s">
+      <c r="P36" s="12" t="s">
         <v>330</v>
       </c>
       <c r="Q36" s="5" t="s">
@@ -13050,7 +14196,7 @@
       <c r="R36" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="S36" s="14" t="s">
+      <c r="S36" s="12" t="s">
         <v>332</v>
       </c>
     </row>
@@ -13061,7 +14207,7 @@
       <c r="B37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="14" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -13070,7 +14216,7 @@
       <c r="E37" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="14" t="s">
         <v>75</v>
       </c>
       <c r="G37" s="5" t="s">
@@ -13079,7 +14225,7 @@
       <c r="H37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I37" s="20" t="s">
+      <c r="I37" s="18" t="s">
         <v>345</v>
       </c>
       <c r="K37" s="5" t="s">
@@ -13088,7 +14234,7 @@
       <c r="L37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="9" t="s">
         <v>346</v>
       </c>
       <c r="N37" s="5" t="s">
@@ -13097,7 +14243,7 @@
       <c r="O37" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="P37" s="14" t="s">
+      <c r="P37" s="12" t="s">
         <v>336</v>
       </c>
       <c r="Q37" s="5" t="s">
@@ -13106,7 +14252,7 @@
       <c r="R37" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="S37" s="12" t="s">
+      <c r="S37" s="10" t="s">
         <v>338</v>
       </c>
     </row>
@@ -13117,7 +14263,7 @@
       <c r="B38" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -13126,7 +14272,7 @@
       <c r="E38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="14" t="s">
         <v>91</v>
       </c>
       <c r="G38" s="5" t="s">
@@ -13135,7 +14281,7 @@
       <c r="H38" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I38" s="20" t="s">
+      <c r="I38" s="18" t="s">
         <v>203</v>
       </c>
       <c r="Q38" s="5" t="s">
@@ -13144,7 +14290,7 @@
       <c r="R38" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="S38" s="12" t="s">
+      <c r="S38" s="10" t="s">
         <v>342</v>
       </c>
     </row>
@@ -13155,7 +14301,7 @@
       <c r="B39" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="14" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -13164,7 +14310,7 @@
       <c r="E39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="14" t="s">
         <v>105</v>
       </c>
       <c r="G39" s="5" t="s">
@@ -13173,14 +14319,14 @@
       <c r="H39" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I39" s="20" t="s">
+      <c r="I39" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="K39" s="30" t="s">
+      <c r="K39" s="28" t="s">
         <v>366</v>
       </c>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
     </row>
     <row r="40" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
@@ -13189,7 +14335,7 @@
       <c r="B40" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="14" t="s">
         <v>72</v>
       </c>
       <c r="D40" s="5" t="s">
@@ -13198,7 +14344,7 @@
       <c r="E40" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="14" t="s">
         <v>117</v>
       </c>
       <c r="G40" s="5" t="s">
@@ -13207,7 +14353,7 @@
       <c r="H40" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I40" s="20" t="s">
+      <c r="I40" s="18" t="s">
         <v>223</v>
       </c>
       <c r="K40" s="5" t="s">
@@ -13227,7 +14373,7 @@
       <c r="B41" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="14" t="s">
         <v>88</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -13236,7 +14382,7 @@
       <c r="E41" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="14" t="s">
         <v>130</v>
       </c>
       <c r="G41" s="5" t="s">
@@ -13245,7 +14391,7 @@
       <c r="H41" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I41" s="20" t="s">
+      <c r="I41" s="18" t="s">
         <v>348</v>
       </c>
       <c r="K41" s="5" t="s">
@@ -13265,7 +14411,7 @@
       <c r="B42" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D42" s="5" t="s">
@@ -13274,7 +14420,7 @@
       <c r="E42" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="14" t="s">
         <v>143</v>
       </c>
       <c r="G42" s="5" t="s">
@@ -13283,7 +14429,7 @@
       <c r="H42" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I42" s="20" t="s">
+      <c r="I42" s="18" t="s">
         <v>271</v>
       </c>
       <c r="K42" s="5" t="s">
@@ -13303,7 +14449,7 @@
       <c r="B43" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="14" t="s">
         <v>116</v>
       </c>
       <c r="D43" s="5" t="s">
@@ -13312,7 +14458,7 @@
       <c r="E43" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="14" t="s">
         <v>156</v>
       </c>
       <c r="G43" s="5" t="s">
@@ -13321,7 +14467,7 @@
       <c r="H43" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="I43" s="20" t="s">
+      <c r="I43" s="18" t="s">
         <v>255</v>
       </c>
       <c r="K43" s="5" t="s">
@@ -13341,7 +14487,7 @@
       <c r="B44" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D44" s="5" t="s">
@@ -13350,7 +14496,7 @@
       <c r="E44" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="19" t="s">
         <v>169</v>
       </c>
       <c r="G44" s="5" t="s">
@@ -13359,7 +14505,7 @@
       <c r="H44" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="I44" s="20" t="s">
+      <c r="I44" s="18" t="s">
         <v>295</v>
       </c>
       <c r="K44" s="5" t="s">
@@ -13379,7 +14525,7 @@
       <c r="B45" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="14" t="s">
         <v>142</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -13388,7 +14534,7 @@
       <c r="E45" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F45" s="19" t="s">
         <v>182</v>
       </c>
       <c r="G45" s="5" t="s">
@@ -13397,7 +14543,7 @@
       <c r="H45" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I45" s="20" t="s">
+      <c r="I45" s="18" t="s">
         <v>349</v>
       </c>
       <c r="K45" s="5" t="s">
@@ -13417,7 +14563,7 @@
       <c r="B46" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="14" t="s">
         <v>155</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -13426,7 +14572,7 @@
       <c r="E46" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="F46" s="19" t="s">
         <v>192</v>
       </c>
       <c r="G46" s="5" t="s">
@@ -13435,7 +14581,7 @@
       <c r="H46" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="I46" s="20" t="s">
+      <c r="I46" s="18" t="s">
         <v>350</v>
       </c>
       <c r="K46" s="5" t="s">
@@ -13455,7 +14601,7 @@
       <c r="B47" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="14" t="s">
         <v>168</v>
       </c>
       <c r="D47" s="5" t="s">
@@ -13464,7 +14610,7 @@
       <c r="E47" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="F47" s="19" t="s">
         <v>202</v>
       </c>
       <c r="G47" s="5" t="s">
@@ -13473,7 +14619,7 @@
       <c r="H47" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="I47" s="20" t="s">
+      <c r="I47" s="18" t="s">
         <v>351</v>
       </c>
       <c r="K47" s="5" t="s">
@@ -13493,7 +14639,7 @@
       <c r="B48" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="14" t="s">
         <v>181</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -13502,7 +14648,7 @@
       <c r="E48" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="19" t="s">
         <v>212</v>
       </c>
       <c r="G48" s="5" t="s">
@@ -13511,7 +14657,7 @@
       <c r="H48" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="I48" s="20" t="s">
+      <c r="I48" s="18" t="s">
         <v>279</v>
       </c>
       <c r="K48" s="5" t="s">
@@ -13531,7 +14677,7 @@
       <c r="B49" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="14" t="s">
         <v>191</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -13540,7 +14686,7 @@
       <c r="E49" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F49" s="21" t="s">
+      <c r="F49" s="19" t="s">
         <v>222</v>
       </c>
       <c r="G49" s="5" t="s">
@@ -13549,7 +14695,7 @@
       <c r="H49" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="I49" s="20" t="s">
+      <c r="I49" s="18" t="s">
         <v>352</v>
       </c>
       <c r="K49" s="5" t="s">
@@ -13569,7 +14715,7 @@
       <c r="B50" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="14" t="s">
         <v>201</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -13578,7 +14724,7 @@
       <c r="E50" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F50" s="21" t="s">
+      <c r="F50" s="19" t="s">
         <v>231</v>
       </c>
       <c r="G50" s="5" t="s">
@@ -13587,7 +14733,7 @@
       <c r="H50" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="I50" s="20" t="s">
+      <c r="I50" s="18" t="s">
         <v>353</v>
       </c>
       <c r="K50" s="5" t="s">
@@ -13607,7 +14753,7 @@
       <c r="B51" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="14" t="s">
         <v>211</v>
       </c>
       <c r="D51" s="5" t="s">
@@ -13616,7 +14762,7 @@
       <c r="E51" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F51" s="21" t="s">
+      <c r="F51" s="19" t="s">
         <v>238</v>
       </c>
       <c r="G51" s="5" t="s">
@@ -13625,7 +14771,7 @@
       <c r="H51" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="I51" s="20" t="s">
+      <c r="I51" s="18" t="s">
         <v>354</v>
       </c>
       <c r="K51" s="5" t="s">
@@ -13645,7 +14791,7 @@
       <c r="B52" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="14" t="s">
         <v>220</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -13654,7 +14800,7 @@
       <c r="E52" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F52" s="21" t="s">
+      <c r="F52" s="19" t="s">
         <v>246</v>
       </c>
       <c r="G52" s="5" t="s">
@@ -13663,7 +14809,7 @@
       <c r="H52" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="I52" s="20" t="s">
+      <c r="I52" s="18" t="s">
         <v>263</v>
       </c>
       <c r="K52" s="5" t="s">
@@ -13683,7 +14829,7 @@
       <c r="B53" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="14" t="s">
         <v>230</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -13692,7 +14838,7 @@
       <c r="E53" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F53" s="21" t="s">
+      <c r="F53" s="19" t="s">
         <v>254</v>
       </c>
       <c r="G53" s="5" t="s">
@@ -13701,7 +14847,7 @@
       <c r="H53" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="I53" s="20" t="s">
+      <c r="I53" s="18" t="s">
         <v>239</v>
       </c>
       <c r="K53" s="5" t="s">
@@ -13721,7 +14867,7 @@
       <c r="B54" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="14" t="s">
         <v>237</v>
       </c>
       <c r="D54" s="5" t="s">
@@ -13730,7 +14876,7 @@
       <c r="E54" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="F54" s="19" t="s">
         <v>262</v>
       </c>
       <c r="G54" s="5" t="s">
@@ -13739,7 +14885,7 @@
       <c r="H54" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="I54" s="20" t="s">
+      <c r="I54" s="18" t="s">
         <v>287</v>
       </c>
       <c r="K54" s="5" t="s">
@@ -13759,7 +14905,7 @@
       <c r="B55" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="14" t="s">
         <v>245</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -13768,7 +14914,7 @@
       <c r="E55" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F55" s="21" t="s">
+      <c r="F55" s="19" t="s">
         <v>270</v>
       </c>
       <c r="G55" s="5" t="s">
@@ -13777,7 +14923,7 @@
       <c r="H55" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="I55" s="20" t="s">
+      <c r="I55" s="18" t="s">
         <v>355</v>
       </c>
       <c r="K55" s="5" t="s">
@@ -13786,7 +14932,7 @@
       <c r="L55" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="M55" s="22" t="s">
+      <c r="M55" s="20" t="s">
         <v>398</v>
       </c>
     </row>
@@ -13797,7 +14943,7 @@
       <c r="B56" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="14" t="s">
         <v>253</v>
       </c>
       <c r="D56" s="5" t="s">
@@ -13806,7 +14952,7 @@
       <c r="E56" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F56" s="21" t="s">
+      <c r="F56" s="19" t="s">
         <v>278</v>
       </c>
       <c r="G56" s="5" t="s">
@@ -13815,7 +14961,7 @@
       <c r="H56" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I56" s="20" t="s">
+      <c r="I56" s="18" t="s">
         <v>247</v>
       </c>
     </row>
@@ -13826,7 +14972,7 @@
       <c r="B57" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="14" t="s">
         <v>261</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -13835,7 +14981,7 @@
       <c r="E57" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F57" s="21" t="s">
+      <c r="F57" s="19" t="s">
         <v>286</v>
       </c>
       <c r="G57" s="5" t="s">
@@ -13844,7 +14990,7 @@
       <c r="H57" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I57" s="20" t="s">
+      <c r="I57" s="18" t="s">
         <v>232</v>
       </c>
     </row>
@@ -13855,7 +15001,7 @@
       <c r="B58" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="14" t="s">
         <v>269</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -13864,7 +15010,7 @@
       <c r="E58" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="F58" s="21" t="s">
+      <c r="F58" s="19" t="s">
         <v>294</v>
       </c>
       <c r="G58" s="5" t="s">
@@ -13873,7 +15019,7 @@
       <c r="H58" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I58" s="20" t="s">
+      <c r="I58" s="18" t="s">
         <v>356</v>
       </c>
     </row>
@@ -13884,7 +15030,7 @@
       <c r="B59" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="14" t="s">
         <v>277</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -13893,7 +15039,7 @@
       <c r="E59" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F59" s="21" t="s">
+      <c r="F59" s="19" t="s">
         <v>302</v>
       </c>
       <c r="G59" s="5" t="s">
@@ -13902,7 +15048,7 @@
       <c r="H59" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I59" s="20" t="s">
+      <c r="I59" s="18" t="s">
         <v>303</v>
       </c>
     </row>
@@ -13913,7 +15059,7 @@
       <c r="B60" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="14" t="s">
         <v>285</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -13922,7 +15068,7 @@
       <c r="E60" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F60" s="15" t="s">
+      <c r="F60" s="13" t="s">
         <v>310</v>
       </c>
       <c r="G60" s="5" t="s">
@@ -13931,7 +15077,7 @@
       <c r="H60" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I60" s="20" t="s">
+      <c r="I60" s="18" t="s">
         <v>311</v>
       </c>
     </row>
@@ -13942,7 +15088,7 @@
       <c r="B61" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="14" t="s">
         <v>293</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -13951,7 +15097,7 @@
       <c r="E61" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F61" s="16" t="s">
+      <c r="F61" s="14" t="s">
         <v>318</v>
       </c>
       <c r="G61" s="5" t="s">
@@ -13960,7 +15106,7 @@
       <c r="H61" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I61" s="20" t="s">
+      <c r="I61" s="18" t="s">
         <v>357</v>
       </c>
     </row>
@@ -13971,7 +15117,7 @@
       <c r="B62" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="14" t="s">
         <v>301</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -13980,7 +15126,7 @@
       <c r="E62" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F62" s="16" t="s">
+      <c r="F62" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G62" s="5" t="s">
@@ -13989,7 +15135,7 @@
       <c r="H62" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I62" s="20" t="s">
+      <c r="I62" s="18" t="s">
         <v>358</v>
       </c>
     </row>
@@ -14000,7 +15146,7 @@
       <c r="B63" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="14" t="s">
         <v>309</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -14009,7 +15155,7 @@
       <c r="E63" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F63" s="19" t="s">
+      <c r="F63" s="17" t="s">
         <v>30</v>
       </c>
       <c r="G63" s="5" t="s">
@@ -14018,7 +15164,7 @@
       <c r="H63" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I63" s="20" t="s">
+      <c r="I63" s="18" t="s">
         <v>359</v>
       </c>
     </row>
@@ -14029,7 +15175,7 @@
       <c r="B64" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="14" t="s">
         <v>317</v>
       </c>
       <c r="D64" s="5" t="s">
@@ -14038,7 +15184,7 @@
       <c r="E64" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F64" s="16" t="s">
+      <c r="F64" s="14" t="s">
         <v>46</v>
       </c>
       <c r="G64" s="5" t="s">
@@ -14047,7 +15193,7 @@
       <c r="H64" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I64" s="20" t="s">
+      <c r="I64" s="18" t="s">
         <v>360</v>
       </c>
     </row>
@@ -14058,7 +15204,7 @@
       <c r="B65" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D65" s="5" t="s">
@@ -14067,7 +15213,7 @@
       <c r="E65" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F65" s="16" t="s">
+      <c r="F65" s="14" t="s">
         <v>62</v>
       </c>
       <c r="G65" s="5" t="s">
@@ -14076,7 +15222,7 @@
       <c r="H65" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I65" s="20" t="s">
+      <c r="I65" s="18" t="s">
         <v>361</v>
       </c>
     </row>
@@ -14087,7 +15233,7 @@
       <c r="B66" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="5" t="s">
@@ -14096,7 +15242,7 @@
       <c r="E66" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F66" s="16" t="s">
+      <c r="F66" s="14" t="s">
         <v>78</v>
       </c>
       <c r="G66" s="5" t="s">
@@ -14105,7 +15251,7 @@
       <c r="H66" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I66" s="20" t="s">
+      <c r="I66" s="18" t="s">
         <v>362</v>
       </c>
     </row>
@@ -14116,7 +15262,7 @@
       <c r="B67" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="14" t="s">
         <v>43</v>
       </c>
       <c r="D67" s="5" t="s">
@@ -14125,7 +15271,7 @@
       <c r="E67" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F67" s="21" t="s">
+      <c r="F67" s="19" t="s">
         <v>94</v>
       </c>
       <c r="G67" s="5" t="s">
@@ -14134,7 +15280,7 @@
       <c r="H67" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I67" s="20" t="s">
+      <c r="I67" s="18" t="s">
         <v>363</v>
       </c>
     </row>
@@ -14146,7 +15292,7 @@
       <c r="H68" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I68" s="20" t="s">
+      <c r="I68" s="18" t="s">
         <v>364</v>
       </c>
     </row>
@@ -14158,7 +15304,7 @@
       <c r="H69" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I69" s="20" t="s">
+      <c r="I69" s="18" t="s">
         <v>365</v>
       </c>
     </row>
@@ -14209,28 +15355,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="K1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="33"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="31"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -15948,17 +17094,17 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
       <c r="K33" s="3" t="s">
         <v>25</v>
       </c>
@@ -15988,19 +17134,19 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
       <c r="K34" s="3" t="s">
         <v>41</v>
       </c>
@@ -16236,11 +17382,11 @@
       <c r="I39" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="K39" s="30" t="s">
+      <c r="K39" s="28" t="s">
         <v>366</v>
       </c>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
